--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39660" yWindow="465" windowWidth="27315" windowHeight="13215"/>
+    <workbookView xWindow="6120" yWindow="390" windowWidth="20505" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1491,6 +1492,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2962,6 +2964,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3210,139 +3213,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.169525976045652E-4</c:v>
+                  <c:v>8.3535154363795582E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.1752917234084488E-4</c:v>
+                  <c:v>8.4219975989597396E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1810574707712455E-4</c:v>
+                  <c:v>8.490479761539921E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1868232181340423E-4</c:v>
+                  <c:v>8.5589619241201024E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.192588965496839E-4</c:v>
+                  <c:v>8.6274440867002851E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1983547128596358E-4</c:v>
+                  <c:v>8.6959262492804665E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.2041204602224325E-4</c:v>
+                  <c:v>8.7644084118606479E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.2098862075852291E-4</c:v>
+                  <c:v>8.8328905744408293E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.2156519549480259E-4</c:v>
+                  <c:v>8.9013727370210107E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.2214177023108226E-4</c:v>
+                  <c:v>8.9698548996011934E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.2271834496736195E-4</c:v>
+                  <c:v>9.0383370621813748E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.2329491970364162E-4</c:v>
+                  <c:v>9.1068192247615562E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.2387149443992128E-4</c:v>
+                  <c:v>9.1753013873417376E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.2502464391248049E-4</c:v>
+                  <c:v>9.3122657125021058E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.257371509678276E-4</c:v>
+                  <c:v>9.3653356898584856E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.2747491616587538E-4</c:v>
+                  <c:v>9.4947704217941147E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.288153408147681E-4</c:v>
+                  <c:v>9.5946098623032544E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.3057006374713636E-4</c:v>
+                  <c:v>9.7253076646459089E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.3267464889272552E-4</c:v>
+                  <c:v>9.8820644085725759E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.3518963943025996E-4</c:v>
+                  <c:v>1.0069389558375392E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3768348052724193E-4</c:v>
+                  <c:v>1.0255139425066559E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.39758167601846E-4</c:v>
+                  <c:v>1.0409669257781229E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.398114562236462E-4</c:v>
+                  <c:v>1.0413638377709327E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.4054648228692851E-4</c:v>
+                  <c:v>1.0468385648268966E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.410584182741791E-4</c:v>
+                  <c:v>1.0506516402269809E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4130977954115341E-4</c:v>
+                  <c:v>1.0525238654416629E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.4116778445499517E-4</c:v>
+                  <c:v>1.0514662371767102E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4095062087054683E-4</c:v>
+                  <c:v>1.049848728069563E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4073502606328232E-4</c:v>
+                  <c:v>1.0482429037547278E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4047478335934126E-4</c:v>
+                  <c:v>1.0463045265412438E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.4033120289518245E-4</c:v>
+                  <c:v>1.0452350898353836E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.4017744613034961E-4</c:v>
+                  <c:v>1.0440898565402417E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.4005196055645938E-4</c:v>
+                  <c:v>1.0431551968039025E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.3999898735017762E-4</c:v>
+                  <c:v>1.0427606341344144E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.3994984893256747E-4</c:v>
+                  <c:v>1.0423946342905772E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.3993915800657392E-4</c:v>
+                  <c:v>1.0423150045948235E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.3933619144061889E-4</c:v>
+                  <c:v>1.0378239021191717E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.3939839470101929E-4</c:v>
+                  <c:v>1.0382872134079749E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.3948722567150304E-4</c:v>
+                  <c:v>1.0389488570445874E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.3963274843122281E-4</c:v>
+                  <c:v>1.0400327606361671E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.3986940137454762E-4</c:v>
+                  <c:v>1.0417954331948897E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.4021550350277234E-4</c:v>
+                  <c:v>1.0443733209463218E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.4068624456323251E-4</c:v>
+                  <c:v>1.0478795623557024E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.4125802649490353E-4</c:v>
+                  <c:v>1.052138390943973E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.4183954480560443E-4</c:v>
+                  <c:v>1.0564697394337339E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,6 +3431,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3676,88 +3680,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>8.273213319211569E-4</c:v>
+                  <c:v>7.8278699422195969E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>8.3148206440313553E-4</c:v>
+                  <c:v>7.8942185657611592E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>8.3564279688511426E-4</c:v>
+                  <c:v>7.9605671893027215E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.3980352936709288E-4</c:v>
+                  <c:v>8.0269158128442838E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.4396426184907161E-4</c:v>
+                  <c:v>8.093264436385846E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.4812499433105034E-4</c:v>
+                  <c:v>8.1596130599274083E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.5228572681302897E-4</c:v>
+                  <c:v>8.2259616834689706E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.564464592950077E-4</c:v>
+                  <c:v>8.2923103070105329E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.6060719177698643E-4</c:v>
+                  <c:v>8.3586589305520962E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.6476792425896516E-4</c:v>
+                  <c:v>8.4250075540936585E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.6892865674094389E-4</c:v>
+                  <c:v>8.4913561776352208E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.7308938922292252E-4</c:v>
+                  <c:v>8.5577048011767831E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.7725012170490125E-4</c:v>
+                  <c:v>8.6240534247183454E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.8141085418687998E-4</c:v>
+                  <c:v>8.6904020482599087E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.8557158666885871E-4</c:v>
+                  <c:v>8.756750671801471E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.8973231915083744E-4</c:v>
+                  <c:v>8.8230992953430333E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9389305163281607E-4</c:v>
+                  <c:v>8.8894479188845956E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
                   <c:v>9.0221451659677255E-4</c:v>
@@ -3939,6 +3943,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4223,148 +4228,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8432955353395896E-4</c:v>
+                  <c:v>7.8701944276366495E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.8825433506524449E-4</c:v>
+                  <c:v>7.9363411352465646E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.9217911659653002E-4</c:v>
+                  <c:v>8.0024878428564797E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.9610389812781554E-4</c:v>
+                  <c:v>8.0686345504663948E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.0002867965910107E-4</c:v>
+                  <c:v>8.1347812580763099E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.039534611903866E-4</c:v>
+                  <c:v>8.200927965686225E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.0787824272167213E-4</c:v>
+                  <c:v>8.2670746732961401E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.1180302425295765E-4</c:v>
+                  <c:v>8.3332213809060552E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.1572780578424318E-4</c:v>
+                  <c:v>8.3993680885159703E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.1965258731552871E-4</c:v>
+                  <c:v>8.4655147961258854E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.2357736884681424E-4</c:v>
+                  <c:v>8.5316615037358005E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.2750215037809976E-4</c:v>
+                  <c:v>8.5978082113457156E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.3142693190938529E-4</c:v>
+                  <c:v>8.6639549189556307E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.3535171344067082E-4</c:v>
+                  <c:v>8.7301016265655459E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.3927649497195634E-4</c:v>
+                  <c:v>8.796248334175461E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.4320127650324187E-4</c:v>
+                  <c:v>8.8623950417853761E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>8.5105083956581206E-4</c:v>
+                  <c:v>8.9946884570052106E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>8.6362564386112969E-4</c:v>
+                  <c:v>9.1618333067733772E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>8.8653807874749006E-4</c:v>
+                  <c:v>9.5080168010684338E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>8.9609812880132704E-4</c:v>
+                  <c:v>9.5201610135198396E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.1508948578412821E-4</c:v>
+                  <c:v>9.7163382044328922E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.3906247999301577E-4</c:v>
+                  <c:v>9.9677402720753957E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.6635462561475997E-4</c:v>
+                  <c:v>1.0257664403100324E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.9541634898000749E-4</c:v>
+                  <c:v>1.054973973897391E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0252479702005063E-3</c:v>
+                  <c:v>1.0826332644883227E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.0404843581759452E-3</c:v>
+                  <c:v>1.0947544008136727E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.0621819980793296E-3</c:v>
+                  <c:v>1.111741709764808E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.0805863283182492E-3</c:v>
+                  <c:v>1.1252111441076736E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.0975962517824405E-3</c:v>
+                  <c:v>1.13791246227217E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1082261735005673E-3</c:v>
+                  <c:v>1.1448297066910707E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1115937490905916E-3</c:v>
+                  <c:v>1.1463741092848506E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1135572563513081E-3</c:v>
+                  <c:v>1.1472781052312042E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1171336612053663E-3</c:v>
+                  <c:v>1.1499951180501155E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1206100747897447E-3</c:v>
+                  <c:v>1.1528724848208298E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1235212292291126E-3</c:v>
+                  <c:v>1.1543425146487247E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1259730524110234E-3</c:v>
+                  <c:v>1.1556143490372829E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1281614527253151E-3</c:v>
+                  <c:v>1.1563414809025285E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.129421179757297E-3</c:v>
+                  <c:v>1.1558918409699033E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1306625149142973E-3</c:v>
+                  <c:v>1.1554523439281288E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.1324246427843901E-3</c:v>
+                  <c:v>1.1557456772560825E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.134243692343509E-3</c:v>
+                  <c:v>1.1561337827291145E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1368047027325904E-3</c:v>
+                  <c:v>1.157570128737737E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1399612373774119E-3</c:v>
+                  <c:v>1.160100051243601E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1432056572476211E-3</c:v>
+                  <c:v>1.1628093083177996E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.1458748072054243E-3</c:v>
+                  <c:v>1.1646448962453195E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.149034601169863E-3</c:v>
+                  <c:v>1.1672571339284583E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1517386724092774E-3</c:v>
+                  <c:v>1.1695743279335374E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1549563192969183E-3</c:v>
+                  <c:v>1.1727969617870921E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4450,6 +4455,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4949,6 +4955,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5448,6 +5455,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5696,202 +5704,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>4.3361474640581782E-4</c:v>
+                  <c:v>4.0229524994492407E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>4.3334240816960822E-4</c:v>
+                  <c:v>4.0207647847597988E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>4.3307006993339862E-4</c:v>
+                  <c:v>4.0185770700703575E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.3279773169718891E-4</c:v>
+                  <c:v>4.0163893553809155E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.325253934609793E-4</c:v>
+                  <c:v>4.0142016406914736E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4.322530552247697E-4</c:v>
+                  <c:v>4.0120139260020323E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.3198071698855999E-4</c:v>
+                  <c:v>4.0098262113125903E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>4.3170837875235039E-4</c:v>
+                  <c:v>4.007638496623149E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.3143604051614068E-4</c:v>
+                  <c:v>4.005450781933707E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.3116370227993107E-4</c:v>
+                  <c:v>4.0032630672442651E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>4.3089136404372147E-4</c:v>
+                  <c:v>4.0010753525548238E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.3061902580751176E-4</c:v>
+                  <c:v>3.9988876378653818E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.3034668757130216E-4</c:v>
+                  <c:v>3.9966999231759405E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.3007434933509255E-4</c:v>
+                  <c:v>3.9945122084864985E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.2980201109888284E-4</c:v>
+                  <c:v>3.9923244937970566E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.2952967286267324E-4</c:v>
+                  <c:v>3.9901367791076153E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.2925733462646353E-4</c:v>
+                  <c:v>3.9879490644181733E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.2898499639025393E-4</c:v>
+                  <c:v>3.985761349728732E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.2871265815404432E-4</c:v>
+                  <c:v>3.9835736350392901E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.2844031991783461E-4</c:v>
+                  <c:v>3.9813859203498481E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.2816798168162501E-4</c:v>
+                  <c:v>3.9791982056604068E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.2789564344541541E-4</c:v>
+                  <c:v>3.9770104909709648E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.276233052092057E-4</c:v>
+                  <c:v>3.9748227762815235E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2735096697299609E-4</c:v>
+                  <c:v>3.9726350615920816E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.2707862873678649E-4</c:v>
+                  <c:v>3.9704473469026396E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.2680629050057678E-4</c:v>
+                  <c:v>3.9682596322131983E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.2653395226436718E-4</c:v>
+                  <c:v>3.9660719175237563E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.2626161402815747E-4</c:v>
+                  <c:v>3.963884202834315E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.2598927579194786E-4</c:v>
+                  <c:v>3.9616964881448731E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.2571693755573826E-4</c:v>
+                  <c:v>3.9595087734554311E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.2544459931952855E-4</c:v>
+                  <c:v>3.9573210587659898E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.2517226108331895E-4</c:v>
+                  <c:v>3.9551333440765479E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.2489992284710934E-4</c:v>
+                  <c:v>3.9529456293871065E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.2462758461089963E-4</c:v>
+                  <c:v>3.9507579146976646E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.2438873824440174E-4</c:v>
+                  <c:v>3.9488107202204146E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.2407534343689057E-4</c:v>
+                  <c:v>3.9463500053612947E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.2377617243649813E-4</c:v>
+                  <c:v>3.9439423201329682E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.2351715209070021E-4</c:v>
+                  <c:v>3.9418312773570211E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.2327404443569244E-4</c:v>
+                  <c:v>3.9398555686743125E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.2301495406081271E-4</c:v>
+                  <c:v>3.9378155879617015E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.2275716154106769E-4</c:v>
+                  <c:v>3.9357173764378536E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.2251914989960499E-4</c:v>
+                  <c:v>3.9337932773729034E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.2229566522625E-4</c:v>
+                  <c:v>3.9320025040215199E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.2205898877561721E-4</c:v>
+                  <c:v>3.9301166285471304E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.2182838954153777E-4</c:v>
+                  <c:v>3.9282716409258755E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.2153059460992091E-4</c:v>
+                  <c:v>3.925614023776447E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.2129223074147164E-4</c:v>
+                  <c:v>3.9237627586682667E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.2105560257077186E-4</c:v>
+                  <c:v>3.9219275161600167E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.2081164881148673E-4</c:v>
+                  <c:v>3.9199541277972638E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.2057823342092095E-4</c:v>
+                  <c:v>3.9181083703561484E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.2033930124744408E-4</c:v>
+                  <c:v>3.9162413197540053E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.2010228685491487E-4</c:v>
+                  <c:v>3.9143935372198203E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1986080485501004E-4</c:v>
+                  <c:v>3.912553784956257E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1962159755793251E-4</c:v>
+                  <c:v>3.9107105056736556E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1937903953957962E-4</c:v>
+                  <c:v>3.9088521836354979E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1912818181354919E-4</c:v>
+                  <c:v>3.9069803493707394E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1887738528668283E-4</c:v>
+                  <c:v>3.9051093863545522E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1862257509903752E-4</c:v>
+                  <c:v>3.9031708063940688E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1836307827809949E-4</c:v>
+                  <c:v>3.9012378019693573E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1810865139024295E-4</c:v>
+                  <c:v>3.8993533747490392E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1785935145683339E-4</c:v>
+                  <c:v>3.8974920082794959E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1760862761356765E-4</c:v>
+                  <c:v>3.8956315148339727E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.1738167147641427E-4</c:v>
+                  <c:v>3.8938913142900854E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1718127751170494E-4</c:v>
+                  <c:v>3.8923488009172809E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1700218899655661E-4</c:v>
+                  <c:v>3.890944594975993E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1684734577877668E-4</c:v>
+                  <c:v>3.8896868396591608E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5978,6 +5986,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15523,8 +15532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:AI18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15823,100 +15832,100 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.2502464391248049E-4</v>
+        <v>9.3122657125021058E-5</v>
       </c>
       <c r="E9" s="4">
-        <v>1.257371509678276E-4</v>
+        <v>9.3653356898584856E-5</v>
       </c>
       <c r="F9" s="4">
-        <v>1.2747491616587538E-4</v>
+        <v>9.4947704217941147E-5</v>
       </c>
       <c r="G9" s="4">
-        <v>1.288153408147681E-4</v>
+        <v>9.5946098623032544E-5</v>
       </c>
       <c r="H9" s="4">
-        <v>1.3057006374713636E-4</v>
+        <v>9.7253076646459089E-5</v>
       </c>
       <c r="I9" s="4">
-        <v>1.3267464889272552E-4</v>
+        <v>9.8820644085725759E-5</v>
       </c>
       <c r="J9" s="4">
-        <v>1.3518963943025996E-4</v>
+        <v>1.0069389558375392E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.3768348052724193E-4</v>
+        <v>1.0255139425066559E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.39758167601846E-4</v>
+        <v>1.0409669257781229E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.398114562236462E-4</v>
+        <v>1.0413638377709327E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.4054648228692851E-4</v>
+        <v>1.0468385648268966E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.410584182741791E-4</v>
+        <v>1.0506516402269809E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.4130977954115341E-4</v>
+        <v>1.0525238654416629E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.4116778445499517E-4</v>
+        <v>1.0514662371767102E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.4095062087054683E-4</v>
+        <v>1.049848728069563E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.4073502606328232E-4</v>
+        <v>1.0482429037547278E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.4047478335934126E-4</v>
+        <v>1.0463045265412438E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.4033120289518245E-4</v>
+        <v>1.0452350898353836E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.4017744613034961E-4</v>
+        <v>1.0440898565402417E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.4005196055645938E-4</v>
+        <v>1.0431551968039025E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.3999898735017762E-4</v>
+        <v>1.0427606341344144E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.3994984893256747E-4</v>
+        <v>1.0423946342905772E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.3993915800657392E-4</v>
+        <v>1.0423150045948235E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.3933619144061889E-4</v>
+        <v>1.0378239021191717E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.3939839470101929E-4</v>
+        <v>1.0382872134079749E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.3948722567150304E-4</v>
+        <v>1.0389488570445874E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.3963274843122281E-4</v>
+        <v>1.0400327606361671E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>1.3986940137454762E-4</v>
+        <v>1.0417954331948897E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.4021550350277234E-4</v>
+        <v>1.0443733209463218E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>1.4068624456323251E-4</v>
+        <v>1.0478795623557024E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.4125802649490353E-4</v>
+        <v>1.052138390943973E-4</v>
       </c>
       <c r="AI9" s="4">
-        <v>1.4183954480560443E-4</v>
+        <v>1.0564697394337339E-4</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
@@ -16043,100 +16052,100 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>8.5105083956581206E-4</v>
+        <v>8.9946884570052106E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>8.6362564386112969E-4</v>
+        <v>9.1618333067733772E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.8653807874749006E-4</v>
+        <v>9.5080168010684338E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.9609812880132704E-4</v>
+        <v>9.5201610135198396E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>9.1508948578412821E-4</v>
+        <v>9.7163382044328922E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>9.3906247999301577E-4</v>
+        <v>9.9677402720753957E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.6635462561475997E-4</v>
+        <v>1.0257664403100324E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>9.9541634898000749E-4</v>
+        <v>1.054973973897391E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0252479702005063E-3</v>
+        <v>1.0826332644883227E-3</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0404843581759452E-3</v>
+        <v>1.0947544008136727E-3</v>
       </c>
       <c r="N11" s="4">
-        <v>1.0621819980793296E-3</v>
+        <v>1.111741709764808E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>1.0805863283182492E-3</v>
+        <v>1.1252111441076736E-3</v>
       </c>
       <c r="P11" s="4">
-        <v>1.0975962517824405E-3</v>
+        <v>1.13791246227217E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.1082261735005673E-3</v>
+        <v>1.1448297066910707E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1115937490905916E-3</v>
+        <v>1.1463741092848506E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>1.1135572563513081E-3</v>
+        <v>1.1472781052312042E-3</v>
       </c>
       <c r="T11" s="4">
-        <v>1.1171336612053663E-3</v>
+        <v>1.1499951180501155E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>1.1206100747897447E-3</v>
+        <v>1.1528724848208298E-3</v>
       </c>
       <c r="V11" s="4">
-        <v>1.1235212292291126E-3</v>
+        <v>1.1543425146487247E-3</v>
       </c>
       <c r="W11" s="4">
-        <v>1.1259730524110234E-3</v>
+        <v>1.1556143490372829E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>1.1281614527253151E-3</v>
+        <v>1.1563414809025285E-3</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.129421179757297E-3</v>
+        <v>1.1558918409699033E-3</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.1306625149142973E-3</v>
+        <v>1.1554523439281288E-3</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.1324246427843901E-3</v>
+        <v>1.1557456772560825E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.134243692343509E-3</v>
+        <v>1.1561337827291145E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.1368047027325904E-3</v>
+        <v>1.157570128737737E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.1399612373774119E-3</v>
+        <v>1.160100051243601E-3</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.1432056572476211E-3</v>
+        <v>1.1628093083177996E-3</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.1458748072054243E-3</v>
+        <v>1.1646448962453195E-3</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.149034601169863E-3</v>
+        <v>1.1672571339284583E-3</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.1517386724092774E-3</v>
+        <v>1.1695743279335374E-3</v>
       </c>
       <c r="AI11" s="4">
-        <v>1.1549563192969183E-3</v>
+        <v>1.1727969617870921E-3</v>
       </c>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
@@ -16373,100 +16382,100 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>4.2438873824440174E-4</v>
+        <v>3.9488107202204146E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>4.2407534343689057E-4</v>
+        <v>3.9463500053612947E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>4.2377617243649813E-4</v>
+        <v>3.9439423201329682E-4</v>
       </c>
       <c r="G14" s="4">
-        <v>4.2351715209070021E-4</v>
+        <v>3.9418312773570211E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>4.2327404443569244E-4</v>
+        <v>3.9398555686743125E-4</v>
       </c>
       <c r="I14" s="4">
-        <v>4.2301495406081271E-4</v>
+        <v>3.9378155879617015E-4</v>
       </c>
       <c r="J14" s="4">
-        <v>4.2275716154106769E-4</v>
+        <v>3.9357173764378536E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>4.2251914989960499E-4</v>
+        <v>3.9337932773729034E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>4.2229566522625E-4</v>
+        <v>3.9320025040215199E-4</v>
       </c>
       <c r="M14" s="4">
-        <v>4.2205898877561721E-4</v>
+        <v>3.9301166285471304E-4</v>
       </c>
       <c r="N14" s="4">
-        <v>4.2182838954153777E-4</v>
+        <v>3.9282716409258755E-4</v>
       </c>
       <c r="O14" s="4">
-        <v>4.2153059460992091E-4</v>
+        <v>3.925614023776447E-4</v>
       </c>
       <c r="P14" s="4">
-        <v>4.2129223074147164E-4</v>
+        <v>3.9237627586682667E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>4.2105560257077186E-4</v>
+        <v>3.9219275161600167E-4</v>
       </c>
       <c r="R14" s="4">
-        <v>4.2081164881148673E-4</v>
+        <v>3.9199541277972638E-4</v>
       </c>
       <c r="S14" s="4">
-        <v>4.2057823342092095E-4</v>
+        <v>3.9181083703561484E-4</v>
       </c>
       <c r="T14" s="4">
-        <v>4.2033930124744408E-4</v>
+        <v>3.9162413197540053E-4</v>
       </c>
       <c r="U14" s="4">
-        <v>4.2010228685491487E-4</v>
+        <v>3.9143935372198203E-4</v>
       </c>
       <c r="V14" s="4">
-        <v>4.1986080485501004E-4</v>
+        <v>3.912553784956257E-4</v>
       </c>
       <c r="W14" s="4">
-        <v>4.1962159755793251E-4</v>
+        <v>3.9107105056736556E-4</v>
       </c>
       <c r="X14" s="4">
-        <v>4.1937903953957962E-4</v>
+        <v>3.9088521836354979E-4</v>
       </c>
       <c r="Y14" s="4">
-        <v>4.1912818181354919E-4</v>
+        <v>3.9069803493707394E-4</v>
       </c>
       <c r="Z14" s="4">
-        <v>4.1887738528668283E-4</v>
+        <v>3.9051093863545522E-4</v>
       </c>
       <c r="AA14" s="4">
-        <v>4.1862257509903752E-4</v>
+        <v>3.9031708063940688E-4</v>
       </c>
       <c r="AB14" s="4">
-        <v>4.1836307827809949E-4</v>
+        <v>3.9012378019693573E-4</v>
       </c>
       <c r="AC14" s="4">
-        <v>4.1810865139024295E-4</v>
+        <v>3.8993533747490392E-4</v>
       </c>
       <c r="AD14" s="4">
-        <v>4.1785935145683339E-4</v>
+        <v>3.8974920082794959E-4</v>
       </c>
       <c r="AE14" s="4">
-        <v>4.1760862761356765E-4</v>
+        <v>3.8956315148339727E-4</v>
       </c>
       <c r="AF14" s="4">
-        <v>4.1738167147641427E-4</v>
+        <v>3.8938913142900854E-4</v>
       </c>
       <c r="AG14" s="4">
-        <v>4.1718127751170494E-4</v>
+        <v>3.8923488009172809E-4</v>
       </c>
       <c r="AH14" s="4">
-        <v>4.1700218899655661E-4</v>
+        <v>3.890944594975993E-4</v>
       </c>
       <c r="AI14" s="4">
-        <v>4.1684734577877668E-4</v>
+        <v>3.8896868396591608E-4</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -17995,183 +18004,183 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="17">
         <f t="shared" ref="Z3:AI3" si="1">Z5/AA5*AA3</f>
-        <v>1.169525976045652E-4</v>
+        <v>8.3535154363795582E-5</v>
       </c>
       <c r="AA3" s="17">
         <f t="shared" si="1"/>
-        <v>1.1752917234084488E-4</v>
+        <v>8.4219975989597396E-5</v>
       </c>
       <c r="AB3" s="17">
         <f t="shared" si="1"/>
-        <v>1.1810574707712455E-4</v>
+        <v>8.490479761539921E-5</v>
       </c>
       <c r="AC3" s="17">
         <f t="shared" si="1"/>
-        <v>1.1868232181340423E-4</v>
+        <v>8.5589619241201024E-5</v>
       </c>
       <c r="AD3" s="17">
         <f t="shared" si="1"/>
-        <v>1.192588965496839E-4</v>
+        <v>8.6274440867002851E-5</v>
       </c>
       <c r="AE3" s="17">
         <f t="shared" si="1"/>
-        <v>1.1983547128596358E-4</v>
+        <v>8.6959262492804665E-5</v>
       </c>
       <c r="AF3" s="17">
         <f t="shared" si="1"/>
-        <v>1.2041204602224325E-4</v>
+        <v>8.7644084118606479E-5</v>
       </c>
       <c r="AG3" s="17">
         <f>AG5/AH5*AH3</f>
-        <v>1.2098862075852291E-4</v>
+        <v>8.8328905744408293E-5</v>
       </c>
       <c r="AH3" s="17">
         <f>AH5/AI5*AI3</f>
-        <v>1.2156519549480259E-4</v>
+        <v>8.9013727370210107E-5</v>
       </c>
       <c r="AI3" s="17">
         <f t="shared" si="1"/>
-        <v>1.2214177023108226E-4</v>
+        <v>8.9698548996011934E-5</v>
       </c>
       <c r="AJ3" s="17">
         <f>AJ5/AK5*AK3</f>
-        <v>1.2271834496736195E-4</v>
+        <v>9.0383370621813748E-5</v>
       </c>
       <c r="AK3" s="30">
         <f t="shared" ref="AK3" si="2">AK5/AL5*AL3</f>
-        <v>1.2329491970364162E-4</v>
+        <v>9.1068192247615562E-5</v>
       </c>
       <c r="AL3" s="31">
         <f>AL5/AM5*AM3</f>
-        <v>1.2387149443992128E-4</v>
+        <v>9.1753013873417376E-5</v>
       </c>
       <c r="AM3" s="14">
         <f>BNVFE!D9</f>
-        <v>1.2502464391248049E-4</v>
+        <v>9.3122657125021058E-5</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!E9</f>
-        <v>1.257371509678276E-4</v>
+        <v>9.3653356898584856E-5</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!F9</f>
-        <v>1.2747491616587538E-4</v>
+        <v>9.4947704217941147E-5</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!G9</f>
-        <v>1.288153408147681E-4</v>
+        <v>9.5946098623032544E-5</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!H9</f>
-        <v>1.3057006374713636E-4</v>
+        <v>9.7253076646459089E-5</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!I9</f>
-        <v>1.3267464889272552E-4</v>
+        <v>9.8820644085725759E-5</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!J9</f>
-        <v>1.3518963943025996E-4</v>
+        <v>1.0069389558375392E-4</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!K9</f>
-        <v>1.3768348052724193E-4</v>
+        <v>1.0255139425066559E-4</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!L9</f>
-        <v>1.39758167601846E-4</v>
+        <v>1.0409669257781229E-4</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!M9</f>
-        <v>1.398114562236462E-4</v>
+        <v>1.0413638377709327E-4</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!N9</f>
-        <v>1.4054648228692851E-4</v>
+        <v>1.0468385648268966E-4</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!O9</f>
-        <v>1.410584182741791E-4</v>
+        <v>1.0506516402269809E-4</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!P9</f>
-        <v>1.4130977954115341E-4</v>
+        <v>1.0525238654416629E-4</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!Q9</f>
-        <v>1.4116778445499517E-4</v>
+        <v>1.0514662371767102E-4</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!R9</f>
-        <v>1.4095062087054683E-4</v>
+        <v>1.049848728069563E-4</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!S9</f>
-        <v>1.4073502606328232E-4</v>
+        <v>1.0482429037547278E-4</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!T9</f>
-        <v>1.4047478335934126E-4</v>
+        <v>1.0463045265412438E-4</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!U9</f>
-        <v>1.4033120289518245E-4</v>
+        <v>1.0452350898353836E-4</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!V9</f>
-        <v>1.4017744613034961E-4</v>
+        <v>1.0440898565402417E-4</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!W9</f>
-        <v>1.4005196055645938E-4</v>
+        <v>1.0431551968039025E-4</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!X9</f>
-        <v>1.3999898735017762E-4</v>
+        <v>1.0427606341344144E-4</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!Y9</f>
-        <v>1.3994984893256747E-4</v>
+        <v>1.0423946342905772E-4</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Z9</f>
-        <v>1.3993915800657392E-4</v>
+        <v>1.0423150045948235E-4</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!AA9</f>
-        <v>1.3933619144061889E-4</v>
+        <v>1.0378239021191717E-4</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AB9</f>
-        <v>1.3939839470101929E-4</v>
+        <v>1.0382872134079749E-4</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AC9</f>
-        <v>1.3948722567150304E-4</v>
+        <v>1.0389488570445874E-4</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AD9</f>
-        <v>1.3963274843122281E-4</v>
+        <v>1.0400327606361671E-4</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AE9</f>
-        <v>1.3986940137454762E-4</v>
+        <v>1.0417954331948897E-4</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AF9</f>
-        <v>1.4021550350277234E-4</v>
+        <v>1.0443733209463218E-4</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AG9</f>
-        <v>1.4068624456323251E-4</v>
+        <v>1.0478795623557024E-4</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AH9</f>
-        <v>1.4125802649490353E-4</v>
+        <v>1.052138390943973E-4</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AI9</f>
-        <v>1.4183954480560443E-4</v>
+        <v>1.0564697394337339E-4</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -18193,115 +18202,115 @@
       <c r="J4" s="11"/>
       <c r="K4" s="17">
         <f>K5/L5*L4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="L4" s="17">
         <f t="shared" ref="L4:AI4" si="3">L5/M5*M4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="3"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
-        <v>8.3148206440313553E-4</v>
+        <v>7.8942185657611592E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="3"/>
-        <v>8.3564279688511426E-4</v>
+        <v>7.9605671893027215E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="3"/>
-        <v>8.3980352936709288E-4</v>
+        <v>8.0269158128442838E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="3"/>
-        <v>8.4396426184907161E-4</v>
+        <v>8.093264436385846E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="3"/>
-        <v>8.4812499433105034E-4</v>
+        <v>8.1596130599274083E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="3"/>
-        <v>8.5228572681302897E-4</v>
+        <v>8.2259616834689706E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="3"/>
-        <v>8.564464592950077E-4</v>
+        <v>8.2923103070105329E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="3"/>
-        <v>8.6060719177698643E-4</v>
+        <v>8.3586589305520962E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="3"/>
-        <v>8.6476792425896516E-4</v>
+        <v>8.4250075540936585E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="3"/>
-        <v>8.6892865674094389E-4</v>
+        <v>8.4913561776352208E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>8.7308938922292252E-4</v>
+        <v>8.5577048011767831E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="3"/>
-        <v>8.7725012170490125E-4</v>
+        <v>8.6240534247183454E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="3"/>
-        <v>8.8141085418687998E-4</v>
+        <v>8.6904020482599087E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>8.8557158666885871E-4</v>
+        <v>8.756750671801471E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>8.8973231915083744E-4</v>
+        <v>8.8230992953430333E-4</v>
       </c>
       <c r="AL4" s="31">
         <f>AL5/AM5*AM4</f>
-        <v>8.9389305163281607E-4</v>
+        <v>8.8894479188845956E-4</v>
       </c>
       <c r="AM4" s="14">
         <f>BNVFE!D10</f>
@@ -18499,195 +18508,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+V5</f>
-        <v>7.8432955353395896E-4</v>
+        <v>7.8701944276366495E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AJ5" si="5">($AM$5-$V$5)/COUNT($V$1:$AM$1)+W5</f>
-        <v>7.8825433506524449E-4</v>
+        <v>7.9363411352465646E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="5"/>
-        <v>7.9217911659653002E-4</v>
+        <v>8.0024878428564797E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="5"/>
-        <v>7.9610389812781554E-4</v>
+        <v>8.0686345504663948E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="5"/>
-        <v>8.0002867965910107E-4</v>
+        <v>8.1347812580763099E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="5"/>
-        <v>8.039534611903866E-4</v>
+        <v>8.200927965686225E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="5"/>
-        <v>8.0787824272167213E-4</v>
+        <v>8.2670746732961401E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="5"/>
-        <v>8.1180302425295765E-4</v>
+        <v>8.3332213809060552E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="5"/>
-        <v>8.1572780578424318E-4</v>
+        <v>8.3993680885159703E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="5"/>
-        <v>8.1965258731552871E-4</v>
+        <v>8.4655147961258854E-4</v>
       </c>
       <c r="AG5" s="17">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AF5</f>
-        <v>8.2357736884681424E-4</v>
+        <v>8.5316615037358005E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="5"/>
-        <v>8.2750215037809976E-4</v>
+        <v>8.5978082113457156E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="5"/>
-        <v>8.3142693190938529E-4</v>
+        <v>8.6639549189556307E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="5"/>
-        <v>8.3535171344067082E-4</v>
+        <v>8.7301016265655459E-4</v>
       </c>
       <c r="AK5" s="30">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AJ5</f>
-        <v>8.3927649497195634E-4</v>
+        <v>8.796248334175461E-4</v>
       </c>
       <c r="AL5" s="31">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AK5</f>
-        <v>8.4320127650324187E-4</v>
+        <v>8.8623950417853761E-4</v>
       </c>
       <c r="AM5" s="14">
         <f>BNVFE!D11</f>
-        <v>8.5105083956581206E-4</v>
+        <v>8.9946884570052106E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!E11</f>
-        <v>8.6362564386112969E-4</v>
+        <v>9.1618333067733772E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!F11</f>
-        <v>8.8653807874749006E-4</v>
+        <v>9.5080168010684338E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!G11</f>
-        <v>8.9609812880132704E-4</v>
+        <v>9.5201610135198396E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!H11</f>
-        <v>9.1508948578412821E-4</v>
+        <v>9.7163382044328922E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.3906247999301577E-4</v>
+        <v>9.9677402720753957E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!J11</f>
-        <v>9.6635462561475997E-4</v>
+        <v>1.0257664403100324E-3</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!K11</f>
-        <v>9.9541634898000749E-4</v>
+        <v>1.054973973897391E-3</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!L11</f>
-        <v>1.0252479702005063E-3</v>
+        <v>1.0826332644883227E-3</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!M11</f>
-        <v>1.0404843581759452E-3</v>
+        <v>1.0947544008136727E-3</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.0621819980793296E-3</v>
+        <v>1.111741709764808E-3</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.0805863283182492E-3</v>
+        <v>1.1252111441076736E-3</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.0975962517824405E-3</v>
+        <v>1.13791246227217E-3</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.1082261735005673E-3</v>
+        <v>1.1448297066910707E-3</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.1115937490905916E-3</v>
+        <v>1.1463741092848506E-3</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.1135572563513081E-3</v>
+        <v>1.1472781052312042E-3</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.1171336612053663E-3</v>
+        <v>1.1499951180501155E-3</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.1206100747897447E-3</v>
+        <v>1.1528724848208298E-3</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.1235212292291126E-3</v>
+        <v>1.1543425146487247E-3</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.1259730524110234E-3</v>
+        <v>1.1556143490372829E-3</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.1281614527253151E-3</v>
+        <v>1.1563414809025285E-3</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.129421179757297E-3</v>
+        <v>1.1558918409699033E-3</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.1306625149142973E-3</v>
+        <v>1.1554523439281288E-3</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.1324246427843901E-3</v>
+        <v>1.1557456772560825E-3</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.134243692343509E-3</v>
+        <v>1.1561337827291145E-3</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.1368047027325904E-3</v>
+        <v>1.157570128737737E-3</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.1399612373774119E-3</v>
+        <v>1.160100051243601E-3</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.1432056572476211E-3</v>
+        <v>1.1628093083177996E-3</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.1458748072054243E-3</v>
+        <v>1.1646448962453195E-3</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.149034601169863E-3</v>
+        <v>1.1672571339284583E-3</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.1517386724092774E-3</v>
+        <v>1.1695743279335374E-3</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AI11</f>
-        <v>1.1549563192969183E-3</v>
+        <v>1.1727969617870921E-3</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -19195,267 +19204,267 @@
       <c r="D8" s="11"/>
       <c r="E8" s="4">
         <f t="shared" ref="E8:AK9" si="8">TREND($AM8:$AR8,$AM$1:$AR$1,E$1)</f>
-        <v>4.3361474640581782E-4</v>
+        <v>4.0229524994492407E-4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3334240816960822E-4</v>
+        <v>4.0207647847597988E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3307006993339862E-4</v>
+        <v>4.0185770700703575E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3279773169718891E-4</v>
+        <v>4.0163893553809155E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="8"/>
-        <v>4.325253934609793E-4</v>
+        <v>4.0142016406914736E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="8"/>
-        <v>4.322530552247697E-4</v>
+        <v>4.0120139260020323E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3198071698855999E-4</v>
+        <v>4.0098262113125903E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3170837875235039E-4</v>
+        <v>4.007638496623149E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3143604051614068E-4</v>
+        <v>4.005450781933707E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3116370227993107E-4</v>
+        <v>4.0032630672442651E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3089136404372147E-4</v>
+        <v>4.0010753525548238E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3061902580751176E-4</v>
+        <v>3.9988876378653818E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3034668757130216E-4</v>
+        <v>3.9966999231759405E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="8"/>
-        <v>4.3007434933509255E-4</v>
+        <v>3.9945122084864985E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2980201109888284E-4</v>
+        <v>3.9923244937970566E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2952967286267324E-4</v>
+        <v>3.9901367791076153E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2925733462646353E-4</v>
+        <v>3.9879490644181733E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2898499639025393E-4</v>
+        <v>3.985761349728732E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2871265815404432E-4</v>
+        <v>3.9835736350392901E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2844031991783461E-4</v>
+        <v>3.9813859203498481E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2816798168162501E-4</v>
+        <v>3.9791982056604068E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2789564344541541E-4</v>
+        <v>3.9770104909709648E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="8"/>
-        <v>4.276233052092057E-4</v>
+        <v>3.9748227762815235E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2735096697299609E-4</v>
+        <v>3.9726350615920816E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2707862873678649E-4</v>
+        <v>3.9704473469026396E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2680629050057678E-4</v>
+        <v>3.9682596322131983E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2653395226436718E-4</v>
+        <v>3.9660719175237563E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2626161402815747E-4</v>
+        <v>3.963884202834315E-4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2598927579194786E-4</v>
+        <v>3.9616964881448731E-4</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2571693755573826E-4</v>
+        <v>3.9595087734554311E-4</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2544459931952855E-4</v>
+        <v>3.9573210587659898E-4</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="8"/>
-        <v>4.2517226108331895E-4</v>
+        <v>3.9551333440765479E-4</v>
       </c>
       <c r="AK8" s="33">
         <f t="shared" si="8"/>
-        <v>4.2489992284710934E-4</v>
+        <v>3.9529456293871065E-4</v>
       </c>
       <c r="AL8" s="34">
         <f>TREND($AM8:$AR8,$AM$1:$AR$1,AL$1)</f>
-        <v>4.2462758461089963E-4</v>
+        <v>3.9507579146976646E-4</v>
       </c>
       <c r="AM8" s="14">
         <f>BNVFE!D14</f>
-        <v>4.2438873824440174E-4</v>
+        <v>3.9488107202204146E-4</v>
       </c>
       <c r="AN8" s="15">
         <f>BNVFE!E14</f>
-        <v>4.2407534343689057E-4</v>
+        <v>3.9463500053612947E-4</v>
       </c>
       <c r="AO8" s="15">
         <f>BNVFE!F14</f>
-        <v>4.2377617243649813E-4</v>
+        <v>3.9439423201329682E-4</v>
       </c>
       <c r="AP8" s="15">
         <f>BNVFE!G14</f>
-        <v>4.2351715209070021E-4</v>
+        <v>3.9418312773570211E-4</v>
       </c>
       <c r="AQ8" s="15">
         <f>BNVFE!H14</f>
-        <v>4.2327404443569244E-4</v>
+        <v>3.9398555686743125E-4</v>
       </c>
       <c r="AR8" s="15">
         <f>BNVFE!I14</f>
-        <v>4.2301495406081271E-4</v>
+        <v>3.9378155879617015E-4</v>
       </c>
       <c r="AS8" s="15">
         <f>BNVFE!J14</f>
-        <v>4.2275716154106769E-4</v>
+        <v>3.9357173764378536E-4</v>
       </c>
       <c r="AT8" s="15">
         <f>BNVFE!K14</f>
-        <v>4.2251914989960499E-4</v>
+        <v>3.9337932773729034E-4</v>
       </c>
       <c r="AU8" s="15">
         <f>BNVFE!L14</f>
-        <v>4.2229566522625E-4</v>
+        <v>3.9320025040215199E-4</v>
       </c>
       <c r="AV8" s="15">
         <f>BNVFE!M14</f>
-        <v>4.2205898877561721E-4</v>
+        <v>3.9301166285471304E-4</v>
       </c>
       <c r="AW8" s="15">
         <f>BNVFE!N14</f>
-        <v>4.2182838954153777E-4</v>
+        <v>3.9282716409258755E-4</v>
       </c>
       <c r="AX8" s="15">
         <f>BNVFE!O14</f>
-        <v>4.2153059460992091E-4</v>
+        <v>3.925614023776447E-4</v>
       </c>
       <c r="AY8" s="15">
         <f>BNVFE!P14</f>
-        <v>4.2129223074147164E-4</v>
+        <v>3.9237627586682667E-4</v>
       </c>
       <c r="AZ8" s="15">
         <f>BNVFE!Q14</f>
-        <v>4.2105560257077186E-4</v>
+        <v>3.9219275161600167E-4</v>
       </c>
       <c r="BA8" s="15">
         <f>BNVFE!R14</f>
-        <v>4.2081164881148673E-4</v>
+        <v>3.9199541277972638E-4</v>
       </c>
       <c r="BB8" s="15">
         <f>BNVFE!S14</f>
-        <v>4.2057823342092095E-4</v>
+        <v>3.9181083703561484E-4</v>
       </c>
       <c r="BC8" s="15">
         <f>BNVFE!T14</f>
-        <v>4.2033930124744408E-4</v>
+        <v>3.9162413197540053E-4</v>
       </c>
       <c r="BD8" s="15">
         <f>BNVFE!U14</f>
-        <v>4.2010228685491487E-4</v>
+        <v>3.9143935372198203E-4</v>
       </c>
       <c r="BE8" s="15">
         <f>BNVFE!V14</f>
-        <v>4.1986080485501004E-4</v>
+        <v>3.912553784956257E-4</v>
       </c>
       <c r="BF8" s="15">
         <f>BNVFE!W14</f>
-        <v>4.1962159755793251E-4</v>
+        <v>3.9107105056736556E-4</v>
       </c>
       <c r="BG8" s="15">
         <f>BNVFE!X14</f>
-        <v>4.1937903953957962E-4</v>
+        <v>3.9088521836354979E-4</v>
       </c>
       <c r="BH8" s="15">
         <f>BNVFE!Y14</f>
-        <v>4.1912818181354919E-4</v>
+        <v>3.9069803493707394E-4</v>
       </c>
       <c r="BI8" s="15">
         <f>BNVFE!Z14</f>
-        <v>4.1887738528668283E-4</v>
+        <v>3.9051093863545522E-4</v>
       </c>
       <c r="BJ8" s="15">
         <f>BNVFE!AA14</f>
-        <v>4.1862257509903752E-4</v>
+        <v>3.9031708063940688E-4</v>
       </c>
       <c r="BK8" s="15">
         <f>BNVFE!AB14</f>
-        <v>4.1836307827809949E-4</v>
+        <v>3.9012378019693573E-4</v>
       </c>
       <c r="BL8" s="15">
         <f>BNVFE!AC14</f>
-        <v>4.1810865139024295E-4</v>
+        <v>3.8993533747490392E-4</v>
       </c>
       <c r="BM8" s="15">
         <f>BNVFE!AD14</f>
-        <v>4.1785935145683339E-4</v>
+        <v>3.8974920082794959E-4</v>
       </c>
       <c r="BN8" s="15">
         <f>BNVFE!AE14</f>
-        <v>4.1760862761356765E-4</v>
+        <v>3.8956315148339727E-4</v>
       </c>
       <c r="BO8" s="15">
         <f>BNVFE!AF14</f>
-        <v>4.1738167147641427E-4</v>
+        <v>3.8938913142900854E-4</v>
       </c>
       <c r="BP8" s="15">
         <f>BNVFE!AG14</f>
-        <v>4.1718127751170494E-4</v>
+        <v>3.8923488009172809E-4</v>
       </c>
       <c r="BQ8" s="15">
         <f>BNVFE!AH14</f>
-        <v>4.1700218899655661E-4</v>
+        <v>3.890944594975993E-4</v>
       </c>
       <c r="BR8" s="15">
         <f>BNVFE!AI14</f>
-        <v>4.1684734577877668E-4</v>
+        <v>3.8896868396591608E-4</v>
       </c>
       <c r="BS8" s="15"/>
       <c r="BT8" s="4"/>
@@ -22206,131 +22215,131 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.7240169237243121E-4</v>
+        <v>2.6599351784261217E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.7423762771690073E-4</v>
+        <v>2.6817413407213901E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.760735630613702E-4</v>
+        <v>2.7035475030166584E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.7790949840583971E-4</v>
+        <v>2.7253536653119268E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.7974543375030918E-4</v>
+        <v>2.7471598276071957E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.815813690947787E-4</v>
+        <v>2.768965989902464E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8341730443924816E-4</v>
+        <v>2.7907721521977318E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8525323978371763E-4</v>
+        <v>2.8125783144930001E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8708917512818709E-4</v>
+        <v>2.8343844767882685E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8892511047265661E-4</v>
+        <v>2.8561906390835374E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>3.9076104581712613E-4</v>
+        <v>2.8779968013788057E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>3.9259698116159559E-4</v>
+        <v>2.8998029636740741E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>3.9443291650606506E-4</v>
+        <v>2.9216091259693424E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>3.9810478719500361E-4</v>
+        <v>2.9652214505598802E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>4.0037355966071413E-4</v>
+        <v>2.9821200486128332E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>4.0590696989660307E-4</v>
+        <v>3.0233347922028624E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>4.1017516417334043E-4</v>
+        <v>3.0551257719439306E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>4.1576257140535518E-4</v>
+        <v>3.0967427037425127E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>4.2246401357946801E-4</v>
+        <v>3.1466573511507406E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>4.3047227292266976E-4</v>
+        <v>3.2063056225353217E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>4.384131879946387E-4</v>
+        <v>3.2654522906132983E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>4.450194284164043E-4</v>
+        <v>3.3146578426092858E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4518911060687335E-4</v>
+        <v>3.3159216939548111E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>4.475295883346933E-4</v>
+        <v>3.3333543774751177E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>4.491597002940965E-4</v>
+        <v>3.3454960123017015E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4996008748630418E-4</v>
+        <v>3.3514575715379259E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4950794523827402E-4</v>
+        <v>3.3480898604837346E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4881645066674112E-4</v>
+        <v>3.3429393709583446E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4812995141203045E-4</v>
+        <v>3.3378260882716324E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4730128385474444E-4</v>
+        <v>3.3316538871444861E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4684409342939666E-4</v>
+        <v>3.3282485755284575E-4</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4635449952032364E-4</v>
+        <v>3.3246019116149795E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -22341,131 +22350,131 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AG3" si="0">B$4</f>
-        <v>1.169525976045652E-4</v>
+        <v>8.3535154363795582E-5</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1752917234084488E-4</v>
+        <v>8.4219975989597396E-5</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1810574707712455E-4</v>
+        <v>8.490479761539921E-5</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1868232181340423E-4</v>
+        <v>8.5589619241201024E-5</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>1.192588965496839E-4</v>
+        <v>8.6274440867002851E-5</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>1.1983547128596358E-4</v>
+        <v>8.6959262492804665E-5</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2041204602224325E-4</v>
+        <v>8.7644084118606479E-5</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098862075852291E-4</v>
+        <v>8.8328905744408293E-5</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2156519549480259E-4</v>
+        <v>8.9013727370210107E-5</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2214177023108226E-4</v>
+        <v>8.9698548996011934E-5</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2271834496736195E-4</v>
+        <v>9.0383370621813748E-5</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2329491970364162E-4</v>
+        <v>9.1068192247615562E-5</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2387149443992128E-4</v>
+        <v>9.1753013873417376E-5</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2502464391248049E-4</v>
+        <v>9.3122657125021058E-5</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.257371509678276E-4</v>
+        <v>9.3653356898584856E-5</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2747491616587538E-4</v>
+        <v>9.4947704217941147E-5</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.288153408147681E-4</v>
+        <v>9.5946098623032544E-5</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3057006374713636E-4</v>
+        <v>9.7253076646459089E-5</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3267464889272552E-4</v>
+        <v>9.8820644085725759E-5</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3518963943025996E-4</v>
+        <v>1.0069389558375392E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3768348052724193E-4</v>
+        <v>1.0255139425066559E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.39758167601846E-4</v>
+        <v>1.0409669257781229E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.398114562236462E-4</v>
+        <v>1.0413638377709327E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4054648228692851E-4</v>
+        <v>1.0468385648268966E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.410584182741791E-4</v>
+        <v>1.0506516402269809E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4130977954115341E-4</v>
+        <v>1.0525238654416629E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4116778445499517E-4</v>
+        <v>1.0514662371767102E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4095062087054683E-4</v>
+        <v>1.049848728069563E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4073502606328232E-4</v>
+        <v>1.0482429037547278E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4047478335934126E-4</v>
+        <v>1.0463045265412438E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4033120289518245E-4</v>
+        <v>1.0452350898353836E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4017744613034961E-4</v>
+        <v>1.0440898565402417E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -22476,131 +22485,131 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!Z3</f>
-        <v>1.169525976045652E-4</v>
+        <v>8.3535154363795582E-5</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>1.1752917234084488E-4</v>
+        <v>8.4219975989597396E-5</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>1.1810574707712455E-4</v>
+        <v>8.490479761539921E-5</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>1.1868232181340423E-4</v>
+        <v>8.5589619241201024E-5</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>1.192588965496839E-4</v>
+        <v>8.6274440867002851E-5</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>1.1983547128596358E-4</v>
+        <v>8.6959262492804665E-5</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>1.2041204602224325E-4</v>
+        <v>8.7644084118606479E-5</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>1.2098862075852291E-4</v>
+        <v>8.8328905744408293E-5</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>1.2156519549480259E-4</v>
+        <v>8.9013727370210107E-5</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>1.2214177023108226E-4</v>
+        <v>8.9698548996011934E-5</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>1.2271834496736195E-4</v>
+        <v>9.0383370621813748E-5</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AK3</f>
-        <v>1.2329491970364162E-4</v>
+        <v>9.1068192247615562E-5</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AL3</f>
-        <v>1.2387149443992128E-4</v>
+        <v>9.1753013873417376E-5</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AM3</f>
-        <v>1.2502464391248049E-4</v>
+        <v>9.3122657125021058E-5</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AN3</f>
-        <v>1.257371509678276E-4</v>
+        <v>9.3653356898584856E-5</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AO3</f>
-        <v>1.2747491616587538E-4</v>
+        <v>9.4947704217941147E-5</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AP3</f>
-        <v>1.288153408147681E-4</v>
+        <v>9.5946098623032544E-5</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AQ3</f>
-        <v>1.3057006374713636E-4</v>
+        <v>9.7253076646459089E-5</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AR3</f>
-        <v>1.3267464889272552E-4</v>
+        <v>9.8820644085725759E-5</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AS3</f>
-        <v>1.3518963943025996E-4</v>
+        <v>1.0069389558375392E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AT3</f>
-        <v>1.3768348052724193E-4</v>
+        <v>1.0255139425066559E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AU3</f>
-        <v>1.39758167601846E-4</v>
+        <v>1.0409669257781229E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AV3</f>
-        <v>1.398114562236462E-4</v>
+        <v>1.0413638377709327E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AW3</f>
-        <v>1.4054648228692851E-4</v>
+        <v>1.0468385648268966E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AX3</f>
-        <v>1.410584182741791E-4</v>
+        <v>1.0506516402269809E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AY3</f>
-        <v>1.4130977954115341E-4</v>
+        <v>1.0525238654416629E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AZ3</f>
-        <v>1.4116778445499517E-4</v>
+        <v>1.0514662371767102E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BA3</f>
-        <v>1.4095062087054683E-4</v>
+        <v>1.049848728069563E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BB3</f>
-        <v>1.4073502606328232E-4</v>
+        <v>1.0482429037547278E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BC3</f>
-        <v>1.4047478335934126E-4</v>
+        <v>1.0463045265412438E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BD3</f>
-        <v>1.4033120289518245E-4</v>
+        <v>1.0452350898353836E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BE3</f>
-        <v>1.4017744613034961E-4</v>
+        <v>1.0440898565402417E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -22611,131 +22620,131 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:AG5" si="1">B$4</f>
-        <v>1.169525976045652E-4</v>
+        <v>8.3535154363795582E-5</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>1.1752917234084488E-4</v>
+        <v>8.4219975989597396E-5</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>1.1810574707712455E-4</v>
+        <v>8.490479761539921E-5</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>1.1868232181340423E-4</v>
+        <v>8.5589619241201024E-5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>1.192588965496839E-4</v>
+        <v>8.6274440867002851E-5</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1.1983547128596358E-4</v>
+        <v>8.6959262492804665E-5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2041204602224325E-4</v>
+        <v>8.7644084118606479E-5</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2098862075852291E-4</v>
+        <v>8.8328905744408293E-5</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2156519549480259E-4</v>
+        <v>8.9013727370210107E-5</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2214177023108226E-4</v>
+        <v>8.9698548996011934E-5</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2271834496736195E-4</v>
+        <v>9.0383370621813748E-5</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2329491970364162E-4</v>
+        <v>9.1068192247615562E-5</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2387149443992128E-4</v>
+        <v>9.1753013873417376E-5</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2502464391248049E-4</v>
+        <v>9.3122657125021058E-5</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>1.257371509678276E-4</v>
+        <v>9.3653356898584856E-5</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>1.2747491616587538E-4</v>
+        <v>9.4947704217941147E-5</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>1.288153408147681E-4</v>
+        <v>9.5946098623032544E-5</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>1.3057006374713636E-4</v>
+        <v>9.7253076646459089E-5</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>1.3267464889272552E-4</v>
+        <v>9.8820644085725759E-5</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>1.3518963943025996E-4</v>
+        <v>1.0069389558375392E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>1.3768348052724193E-4</v>
+        <v>1.0255139425066559E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>1.39758167601846E-4</v>
+        <v>1.0409669257781229E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>1.398114562236462E-4</v>
+        <v>1.0413638377709327E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4054648228692851E-4</v>
+        <v>1.0468385648268966E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>1.410584182741791E-4</v>
+        <v>1.0506516402269809E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4130977954115341E-4</v>
+        <v>1.0525238654416629E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4116778445499517E-4</v>
+        <v>1.0514662371767102E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4095062087054683E-4</v>
+        <v>1.049848728069563E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4073502606328232E-4</v>
+        <v>1.0482429037547278E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4047478335934126E-4</v>
+        <v>1.0463045265412438E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4033120289518245E-4</v>
+        <v>1.0452350898353836E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4017744613034961E-4</v>
+        <v>1.0440898565402417E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -22746,131 +22755,131 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.574495997268915E-4</v>
+        <v>1.8388725427714473E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.587188227976756E-4</v>
+        <v>1.8539476293499531E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.5998804586845964E-4</v>
+        <v>1.8690227159284586E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6125726893924374E-4</v>
+        <v>1.8840978025069644E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6252649201002784E-4</v>
+        <v>1.8991728890854705E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6379571508081188E-4</v>
+        <v>1.9142479756639763E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6506493815159598E-4</v>
+        <v>1.9293230622424818E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6633416122238003E-4</v>
+        <v>1.9443981488209876E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6760338429316407E-4</v>
+        <v>1.9594732353994933E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6887260736394817E-4</v>
+        <v>1.9745483219779994E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7014183043473227E-4</v>
+        <v>1.9896234085565052E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7141105350551631E-4</v>
+        <v>2.004698495135011E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7268027657630035E-4</v>
+        <v>2.0197735817135168E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7521872271786822E-4</v>
+        <v>2.0499237548705291E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7678717574891522E-4</v>
+        <v>2.0616061327806903E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.8061254571777562E-4</v>
+        <v>2.0900988046923096E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.8356324366198292E-4</v>
+        <v>2.1120766183728085E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.8742594295915673E-4</v>
+        <v>2.1408473319674479E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.9205879947043391E-4</v>
+        <v>2.1753544415186734E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.9759508785108535E-4</v>
+        <v>2.2165906225213197E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>3.030848196343102E-4</v>
+        <v>2.2574800339653092E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0765186104985309E-4</v>
+        <v>2.2914969300352625E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0776916613442116E-4</v>
+        <v>2.292370658672066E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0938719061319916E-4</v>
+        <v>2.3044222617834184E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>3.1051412338513367E-4</v>
+        <v>2.3128160448680773E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>3.110674489109864E-4</v>
+        <v>2.3169374037946078E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>3.1075487288579853E-4</v>
+        <v>2.3146092299955736E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>3.1027682725845364E-4</v>
+        <v>2.311048581658393E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0980223500509381E-4</v>
+        <v>2.3075136552390255E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>3.09229358631813E-4</v>
+        <v>2.3032466748730272E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0891329268900028E-4</v>
+        <v>2.3008925069665744E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0857482549483535E-4</v>
+        <v>2.2983714868313475E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -22881,131 +22890,131 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>9.0638263143538028E-5</v>
+        <v>6.4739744631941575E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>9.1085108564154777E-5</v>
+        <v>6.527048139193798E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>9.1531953984771525E-5</v>
+        <v>6.5801218151934386E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>9.1978799405388273E-5</v>
+        <v>6.6331954911930791E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>9.2425644826005021E-5</v>
+        <v>6.686269167192721E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>9.2872490246621769E-5</v>
+        <v>6.7393428431923615E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>9.3319335667238517E-5</v>
+        <v>6.7924165191920021E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>9.3766181087855265E-5</v>
+        <v>6.8454901951916426E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>9.4213026508472013E-5</v>
+        <v>6.8985638711912831E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>9.4659871929088761E-5</v>
+        <v>6.951637547190925E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>9.5106717349705523E-5</v>
+        <v>7.0047112231905656E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>9.5553562770322258E-5</v>
+        <v>7.0577848991902061E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>9.6000408190938992E-5</v>
+        <v>7.1108585751898467E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>9.689409903217238E-5</v>
+        <v>7.2170059271891318E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>9.7446292000066394E-5</v>
+        <v>7.2581351596403266E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>9.8793060028553418E-5</v>
+        <v>7.3584470768904388E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>9.9831889131445282E-5</v>
+        <v>7.4358226432850221E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>1.0119179940403068E-4</v>
+        <v>7.5371134401005794E-5</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>1.0282285289186228E-4</v>
+        <v>7.6585999166437467E-5</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>1.0477197055845147E-4</v>
+        <v>7.8037769077409286E-5</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>1.067046974086125E-4</v>
+        <v>7.9477330544265839E-5</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>1.0831257989143065E-4</v>
+        <v>8.0674936747804536E-5</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>1.0835387857332581E-4</v>
+        <v>8.0705697427247282E-5</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>1.0892352377236961E-4</v>
+        <v>8.1129988774084489E-5</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>1.093202741624888E-4</v>
+        <v>8.1425502117591023E-5</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>1.095150791443939E-4</v>
+        <v>8.1570599571728874E-5</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>1.0940503295262126E-4</v>
+        <v>8.1488633381195043E-5</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>1.0923673117467379E-4</v>
+        <v>8.1363276425391136E-5</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>1.090696451990438E-4</v>
+        <v>8.1238825040991415E-5</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>1.0886795710348948E-4</v>
+        <v>8.1088600806946396E-5</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>1.087566822437664E-4</v>
+        <v>8.1005719462242225E-5</v>
       </c>
       <c r="AG7" s="4">
         <f>AG$4*Calculations!$B$31</f>
-        <v>1.0863752075102094E-4</v>
+        <v>8.0916963881868739E-5</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -23016,131 +23025,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>3.5085779281369554E-4</v>
+        <v>2.5060546309138673E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>3.5258751702253456E-4</v>
+        <v>2.5265992796879216E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>3.5431724123137362E-4</v>
+        <v>2.5471439284619759E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>3.5604696544021264E-4</v>
+        <v>2.5676885772360302E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>3.5777668964905165E-4</v>
+        <v>2.588233226010085E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>3.5950641385789066E-4</v>
+        <v>2.6087778747841398E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>3.6123613806672973E-4</v>
+        <v>2.6293225235581941E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>3.6296586227556869E-4</v>
+        <v>2.6498671723322484E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>3.646955864844077E-4</v>
+        <v>2.6704118211063027E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>3.6642531069324671E-4</v>
+        <v>2.6909564698803575E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>3.6815503490208578E-4</v>
+        <v>2.7115011186544123E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>3.6988475911092479E-4</v>
+        <v>2.7320457674284666E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>3.7161448331976375E-4</v>
+        <v>2.7525904162025209E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>3.750739317374414E-4</v>
+        <v>2.7936797137506311E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>3.7721145290348275E-4</v>
+        <v>2.809600706957545E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>3.8242474849762605E-4</v>
+        <v>2.848431126538234E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>3.8644602244430421E-4</v>
+        <v>2.8783829586909756E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>3.9171019124140902E-4</v>
+        <v>2.9175922993937721E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>3.980239466781765E-4</v>
+        <v>2.9646193225717725E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>4.0556891829077982E-4</v>
+        <v>3.020816867512617E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>4.130504415817257E-4</v>
+        <v>3.0765418275199673E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>4.1927450280553795E-4</v>
+        <v>3.1229007773343683E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>4.1943436867093855E-4</v>
+        <v>3.1240915133127974E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>4.2163944686078548E-4</v>
+        <v>3.1405156944806892E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>4.2317525482253723E-4</v>
+        <v>3.1519549206809422E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>4.2392933862346019E-4</v>
+        <v>3.1575715963249885E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>4.2350335336498543E-4</v>
+        <v>3.1543987115301299E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>4.228518626116404E-4</v>
+        <v>3.1495461842086887E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>4.2220507818984689E-4</v>
+        <v>3.1447287112641828E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>4.2142435007802369E-4</v>
+        <v>3.1389135796237308E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>4.2099360868554726E-4</v>
+        <v>3.1357052695061503E-4</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>4.2053233839104873E-4</v>
+        <v>3.1322695696207246E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -23271,115 +23280,115 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6585761196103791E-3</v>
+        <v>2.5154661547859341E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6719465279268057E-3</v>
+        <v>2.5367871167037183E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6853169362432323E-3</v>
+        <v>2.5581080786215029E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6986873445596585E-3</v>
+        <v>2.579429040539287E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7120577528760856E-3</v>
+        <v>2.6007500024570716E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7254281611925123E-3</v>
+        <v>2.6220709643748558E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7387985695089385E-3</v>
+        <v>2.6433919262926404E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7521689778253651E-3</v>
+        <v>2.6647128882104246E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7655393861417922E-3</v>
+        <v>2.6860338501282096E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7789097944582188E-3</v>
+        <v>2.7073548120459937E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7922802027746454E-3</v>
+        <v>2.7286757739637783E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8056506110910717E-3</v>
+        <v>2.7499967358815625E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8190210194074987E-3</v>
+        <v>2.7713176977993471E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8323914277239254E-3</v>
+        <v>2.7926386597171317E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.845761836040352E-3</v>
+        <v>2.8139596216349163E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8591322443567786E-3</v>
+        <v>2.8352805835527004E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8725026526732053E-3</v>
+        <v>2.856601545470485E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
@@ -23406,115 +23415,115 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AG4" si="0">B$5</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3148206440313553E-4</v>
+        <v>7.8942185657611592E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3564279688511426E-4</v>
+        <v>7.9605671893027215E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3980352936709288E-4</v>
+        <v>8.0269158128442838E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4396426184907161E-4</v>
+        <v>8.093264436385846E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4812499433105034E-4</v>
+        <v>8.1596130599274083E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5228572681302897E-4</v>
+        <v>8.2259616834689706E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>8.564464592950077E-4</v>
+        <v>8.2923103070105329E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6060719177698643E-4</v>
+        <v>8.3586589305520962E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6476792425896516E-4</v>
+        <v>8.4250075540936585E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6892865674094389E-4</v>
+        <v>8.4913561776352208E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7308938922292252E-4</v>
+        <v>8.5577048011767831E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7725012170490125E-4</v>
+        <v>8.6240534247183454E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8141085418687998E-4</v>
+        <v>8.6904020482599087E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8557158666885871E-4</v>
+        <v>8.756750671801471E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8973231915083744E-4</v>
+        <v>8.8230992953430333E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>8.9389305163281607E-4</v>
+        <v>8.8894479188845956E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
@@ -23541,115 +23550,115 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3148206440313553E-4</v>
+        <v>7.8942185657611592E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3564279688511426E-4</v>
+        <v>7.9605671893027215E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3980352936709288E-4</v>
+        <v>8.0269158128442838E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4396426184907161E-4</v>
+        <v>8.093264436385846E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4812499433105034E-4</v>
+        <v>8.1596130599274083E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>8.5228572681302897E-4</v>
+        <v>8.2259616834689706E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>8.564464592950077E-4</v>
+        <v>8.2923103070105329E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6060719177698643E-4</v>
+        <v>8.3586589305520962E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6476792425896516E-4</v>
+        <v>8.4250075540936585E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6892865674094389E-4</v>
+        <v>8.4913561776352208E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7308938922292252E-4</v>
+        <v>8.5577048011767831E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7725012170490125E-4</v>
+        <v>8.6240534247183454E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8141085418687998E-4</v>
+        <v>8.6904020482599087E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8557158666885871E-4</v>
+        <v>8.756750671801471E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8973231915083744E-4</v>
+        <v>8.8230992953430333E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9389305163281607E-4</v>
+        <v>8.8894479188845956E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
@@ -23676,115 +23685,115 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!K4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!L4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!M4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!N4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!O4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!P4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!Q4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!R4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!S4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!T4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!U4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!V4</f>
-        <v>8.273213319211569E-4</v>
+        <v>7.8278699422195969E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!W4</f>
-        <v>8.3148206440313553E-4</v>
+        <v>7.8942185657611592E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!X4</f>
-        <v>8.3564279688511426E-4</v>
+        <v>7.9605671893027215E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Y4</f>
-        <v>8.3980352936709288E-4</v>
+        <v>8.0269158128442838E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!Z4</f>
-        <v>8.4396426184907161E-4</v>
+        <v>8.093264436385846E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AA4</f>
-        <v>8.4812499433105034E-4</v>
+        <v>8.1596130599274083E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AB4</f>
-        <v>8.5228572681302897E-4</v>
+        <v>8.2259616834689706E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AC4</f>
-        <v>8.564464592950077E-4</v>
+        <v>8.2923103070105329E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AD4</f>
-        <v>8.6060719177698643E-4</v>
+        <v>8.3586589305520962E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AE4</f>
-        <v>8.6476792425896516E-4</v>
+        <v>8.4250075540936585E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AF4</f>
-        <v>8.6892865674094389E-4</v>
+        <v>8.4913561776352208E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AG4</f>
-        <v>8.7308938922292252E-4</v>
+        <v>8.5577048011767831E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AH4</f>
-        <v>8.7725012170490125E-4</v>
+        <v>8.6240534247183454E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AI4</f>
-        <v>8.8141085418687998E-4</v>
+        <v>8.6904020482599087E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AJ4</f>
-        <v>8.8557158666885871E-4</v>
+        <v>8.756750671801471E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AK4</f>
-        <v>8.8973231915083744E-4</v>
+        <v>8.8230992953430333E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AL4</f>
-        <v>8.9389305163281607E-4</v>
+        <v>8.8894479188845956E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AM4</f>
@@ -23811,115 +23820,115 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8345114651502291E-3</v>
+        <v>1.7357605325321456E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8437375193411541E-3</v>
+        <v>1.7504727496462974E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8529635735320795E-3</v>
+        <v>1.765184966760449E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.862189627723004E-3</v>
+        <v>1.7798971838746008E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8714156819139294E-3</v>
+        <v>1.7946094009887526E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8806417361048543E-3</v>
+        <v>1.8093216181029042E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8898677902957793E-3</v>
+        <v>1.824033835217056E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8990938444867042E-3</v>
+        <v>1.8387460523312076E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9083198986776296E-3</v>
+        <v>1.8534582694453598E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9175459528685546E-3</v>
+        <v>1.8681704865595112E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9267720070594799E-3</v>
+        <v>1.8828827036736632E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9359980612504045E-3</v>
+        <v>1.8975949207878145E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9452241154413301E-3</v>
+        <v>1.9123071379019666E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9544501696322548E-3</v>
+        <v>1.9270193550161184E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9636762238231802E-3</v>
+        <v>1.9417315721302702E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9729022780141051E-3</v>
+        <v>1.956443789244422E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9821283322050301E-3</v>
+        <v>1.9711560063585738E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
@@ -23946,115 +23955,115 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.4117403223889666E-4</v>
+        <v>6.0665992052201881E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.4439859991243008E-4</v>
+        <v>6.1180193884648984E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.4762316758596361E-4</v>
+        <v>6.1694395717096099E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.5084773525949703E-4</v>
+        <v>6.2208597549543202E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.5407230293303056E-4</v>
+        <v>6.2722799381990306E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.5729687060656408E-4</v>
+        <v>6.323700121443742E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.605214382800975E-4</v>
+        <v>6.3751203046884524E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.6374600595363103E-4</v>
+        <v>6.4265404879331627E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.6697057362716445E-4</v>
+        <v>6.4779606711778753E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.7019514130069798E-4</v>
+        <v>6.5293808544225856E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.7341970897423151E-4</v>
+        <v>6.580801037667296E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.7664427664776493E-4</v>
+        <v>6.6322212209120074E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7986884432129845E-4</v>
+        <v>6.6836414041567178E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8309341199483198E-4</v>
+        <v>6.7350615874014292E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8631797966836551E-4</v>
+        <v>6.7864817706461407E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.8954254734189904E-4</v>
+        <v>6.837901953890851E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.9276711501543246E-4</v>
+        <v>6.8893221371355614E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
@@ -24081,115 +24090,115 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.4819639957634702E-3</v>
+        <v>2.3483609826658786E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.4944461932094064E-3</v>
+        <v>2.3682655697283474E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.5069283906553426E-3</v>
+        <v>2.3881701567908162E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.5194105881012783E-3</v>
+        <v>2.4080747438532846E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.5318927855472145E-3</v>
+        <v>2.4279793309157534E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.5443749829931507E-3</v>
+        <v>2.4478839179782222E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.5568571804390865E-3</v>
+        <v>2.467788505040691E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5693393778850227E-3</v>
+        <v>2.4876930921031593E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5818215753309589E-3</v>
+        <v>2.5075976791656285E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5943037727768951E-3</v>
+        <v>2.5275022662280973E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.6067859702228312E-3</v>
+        <v>2.5474068532905657E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.619268167668767E-3</v>
+        <v>2.5673114403530345E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6317503651147032E-3</v>
+        <v>2.5872160274155033E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6442325625606394E-3</v>
+        <v>2.6071206144779721E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6567147600065756E-3</v>
+        <v>2.6270252015404409E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6691969574525118E-3</v>
+        <v>2.6469297886029097E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.681679154898448E-3</v>
+        <v>2.6668343756653785E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
@@ -24384,83 +24393,83 @@
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5204231300163934E-3</v>
+        <v>2.529067020841603E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5330353159363837E-3</v>
+        <v>2.550323097586803E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.545647501856374E-3</v>
+        <v>2.5715791743320024E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5582596877763639E-3</v>
+        <v>2.5928352510772024E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5708718736963542E-3</v>
+        <v>2.6140913278224023E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5834840596163445E-3</v>
+        <v>2.6353474045676022E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5960962455363347E-3</v>
+        <v>2.6566034813128021E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.608708431456325E-3</v>
+        <v>2.6778595580580016E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6213206173763149E-3</v>
+        <v>2.6991156348032015E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6339328032963052E-3</v>
+        <v>2.7203717115484014E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6465449892162955E-3</v>
+        <v>2.7416277882936014E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6591571751362858E-3</v>
+        <v>2.7628838650388008E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6717693610562761E-3</v>
+        <v>2.7841399417840008E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6843815469762659E-3</v>
+        <v>2.8053960185292007E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6969937328962562E-3</v>
+        <v>2.8266520952744006E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7096059188162465E-3</v>
+        <v>2.8479081720196001E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7348302906562241E-3</v>
+        <v>2.8904203255100012E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7752391053675212E-3</v>
+        <v>2.9441318991107481E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8488676338252043E-3</v>
+        <v>3.0553770870957986E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8795886122343932E-3</v>
+        <v>3.0592795989698501E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24519,83 +24528,83 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>7.8432955353395896E-4</v>
+        <v>7.8701944276366495E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>7.8825433506524449E-4</v>
+        <v>7.9363411352465646E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9217911659653002E-4</v>
+        <v>8.0024878428564797E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9610389812781554E-4</v>
+        <v>8.0686345504663948E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0002867965910107E-4</v>
+        <v>8.1347812580763099E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>8.039534611903866E-4</v>
+        <v>8.200927965686225E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0787824272167213E-4</v>
+        <v>8.2670746732961401E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1180302425295765E-4</v>
+        <v>8.3332213809060552E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1572780578424318E-4</v>
+        <v>8.3993680885159703E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1965258731552871E-4</v>
+        <v>8.4655147961258854E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2357736884681424E-4</v>
+        <v>8.5316615037358005E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2750215037809976E-4</v>
+        <v>8.5978082113457156E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3142693190938529E-4</v>
+        <v>8.6639549189556307E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3535171344067082E-4</v>
+        <v>8.7301016265655459E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3927649497195634E-4</v>
+        <v>8.796248334175461E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4320127650324187E-4</v>
+        <v>8.8623950417853761E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5105083956581206E-4</v>
+        <v>8.9946884570052106E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6362564386112969E-4</v>
+        <v>9.1618333067733772E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8653807874749006E-4</v>
+        <v>9.5080168010684338E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>8.9609812880132704E-4</v>
+        <v>9.5201610135198396E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24654,83 +24663,83 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>7.8432955353395896E-4</v>
+        <v>7.8701944276366495E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>7.8825433506524449E-4</v>
+        <v>7.9363411352465646E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9217911659653002E-4</v>
+        <v>8.0024878428564797E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9610389812781554E-4</v>
+        <v>8.0686345504663948E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0002867965910107E-4</v>
+        <v>8.1347812580763099E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>8.039534611903866E-4</v>
+        <v>8.200927965686225E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0787824272167213E-4</v>
+        <v>8.2670746732961401E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1180302425295765E-4</v>
+        <v>8.3332213809060552E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1572780578424318E-4</v>
+        <v>8.3993680885159703E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1965258731552871E-4</v>
+        <v>8.4655147961258854E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2357736884681424E-4</v>
+        <v>8.5316615037358005E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2750215037809976E-4</v>
+        <v>8.5978082113457156E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3142693190938529E-4</v>
+        <v>8.6639549189556307E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3535171344067082E-4</v>
+        <v>8.7301016265655459E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3927649497195634E-4</v>
+        <v>8.796248334175461E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4320127650324187E-4</v>
+        <v>8.8623950417853761E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>8.5105083956581206E-4</v>
+        <v>8.9946884570052106E-4</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6362564386112969E-4</v>
+        <v>9.1618333067733772E-4</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8653807874749006E-4</v>
+        <v>9.5080168010684338E-4</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9609812880132704E-4</v>
+        <v>9.5201610135198396E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24789,83 +24798,83 @@
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!W5</f>
-        <v>7.8432955353395896E-4</v>
+        <v>7.8701944276366495E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!X5</f>
-        <v>7.8825433506524449E-4</v>
+        <v>7.9363411352465646E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Y5</f>
-        <v>7.9217911659653002E-4</v>
+        <v>8.0024878428564797E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!Z5</f>
-        <v>7.9610389812781554E-4</v>
+        <v>8.0686345504663948E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AA5</f>
-        <v>8.0002867965910107E-4</v>
+        <v>8.1347812580763099E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AB5</f>
-        <v>8.039534611903866E-4</v>
+        <v>8.200927965686225E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AC5</f>
-        <v>8.0787824272167213E-4</v>
+        <v>8.2670746732961401E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AD5</f>
-        <v>8.1180302425295765E-4</v>
+        <v>8.3332213809060552E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AE5</f>
-        <v>8.1572780578424318E-4</v>
+        <v>8.3993680885159703E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AF5</f>
-        <v>8.1965258731552871E-4</v>
+        <v>8.4655147961258854E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AG5</f>
-        <v>8.2357736884681424E-4</v>
+        <v>8.5316615037358005E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AH5</f>
-        <v>8.2750215037809976E-4</v>
+        <v>8.5978082113457156E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AI5</f>
-        <v>8.3142693190938529E-4</v>
+        <v>8.6639549189556307E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AJ5</f>
-        <v>8.3535171344067082E-4</v>
+        <v>8.7301016265655459E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AK5</f>
-        <v>8.3927649497195634E-4</v>
+        <v>8.796248334175461E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AL5</f>
-        <v>8.4320127650324187E-4</v>
+        <v>8.8623950417853761E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AM5</f>
-        <v>8.5105083956581206E-4</v>
+        <v>8.9946884570052106E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AN5</f>
-        <v>8.6362564386112969E-4</v>
+        <v>9.1618333067733772E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AO5</f>
-        <v>8.8653807874749006E-4</v>
+        <v>9.5080168010684338E-4</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AP5</f>
-        <v>8.9609812880132704E-4</v>
+        <v>9.5201610135198396E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24924,83 +24933,83 @@
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7391810205992979E-3</v>
+        <v>1.7451456107065309E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7478838745443712E-3</v>
+        <v>1.7598130547588371E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7565867284894442E-3</v>
+        <v>1.7744804988111432E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7652895824345172E-3</v>
+        <v>1.7891479428634493E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7739924363795903E-3</v>
+        <v>1.8038153869157551E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7826952903246636E-3</v>
+        <v>1.8184828309680615E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7913981442697366E-3</v>
+        <v>1.8331502750203676E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8001009982148096E-3</v>
+        <v>1.8478177190726734E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8088038521598829E-3</v>
+        <v>1.8624851631249795E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.817506706104956E-3</v>
+        <v>1.8771526071772859E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.826209560050029E-3</v>
+        <v>1.891820051229592E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.834912413995102E-3</v>
+        <v>1.9064874952818979E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8436152679401753E-3</v>
+        <v>1.9211549393342037E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8523181218852484E-3</v>
+        <v>1.9358223833865098E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8610209758303212E-3</v>
+        <v>1.9504898274388162E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8697238297753947E-3</v>
+        <v>1.965157271491122E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8871295376655386E-3</v>
+        <v>1.9944921595957351E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9150130476896451E-3</v>
+        <v>2.0315550433157134E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9658193340402331E-3</v>
+        <v>2.1083181539507689E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AG$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9870178946895132E-3</v>
+        <v>2.1110110250418105E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -25059,83 +25068,83 @@
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.0785540398881823E-4</v>
+        <v>6.0994006814184037E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1089710967556453E-4</v>
+        <v>6.1506643798160882E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.1393881536231083E-4</v>
+        <v>6.2019280782137716E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.1698052104905703E-4</v>
+        <v>6.2531917766114561E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.2002222673580333E-4</v>
+        <v>6.3044554750091406E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.2306393242254963E-4</v>
+        <v>6.355719173406825E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.2610563810929594E-4</v>
+        <v>6.4069828718045084E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.2914734379604224E-4</v>
+        <v>6.4582465702021929E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.3218904948278843E-4</v>
+        <v>6.5095102685998774E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.3523075516953474E-4</v>
+        <v>6.5607739669975619E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.3827246085628104E-4</v>
+        <v>6.6120376653952453E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.4131416654302734E-4</v>
+        <v>6.6633013637929298E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.4435587222977364E-4</v>
+        <v>6.7145650621906142E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.4739757791651995E-4</v>
+        <v>6.7658287605882987E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.5043928360326614E-4</v>
+        <v>6.8170924589859821E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.5348098929001244E-4</v>
+        <v>6.8683561573836666E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>6.595644006635044E-4</v>
+        <v>6.9708835541790388E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>6.6930987399237553E-4</v>
+        <v>7.1004208127493679E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>6.8706701102930483E-4</v>
+        <v>7.368713020828036E-4</v>
       </c>
       <c r="AG7" s="4">
         <f>AG$4*Calculations!$B$31</f>
-        <v>6.9447604982102846E-4</v>
+        <v>7.3781247854778757E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -25194,83 +25203,83 @@
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3529886606018765E-3</v>
+        <v>2.3610583282909943E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3647630051957329E-3</v>
+        <v>2.380902340573969E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.3765373497895898E-3</v>
+        <v>2.4007463528569434E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.3883116943834463E-3</v>
+        <v>2.4205903651399181E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4000860389773028E-3</v>
+        <v>2.4404343774228924E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4118603835711593E-3</v>
+        <v>2.4602783897058672E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.4236347281650162E-3</v>
+        <v>2.4801224019888415E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.4354090727588726E-3</v>
+        <v>2.4999664142718162E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.4471834173527291E-3</v>
+        <v>2.5198104265547906E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.4589577619465856E-3</v>
+        <v>2.5396544388377653E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.4707321065404425E-3</v>
+        <v>2.5594984511207396E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.482506451134299E-3</v>
+        <v>2.5793424634037144E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.4942807957281554E-3</v>
+        <v>2.5991864756866887E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.5060551403220119E-3</v>
+        <v>2.6190304879696634E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.5178294849158688E-3</v>
+        <v>2.6388745002526377E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.5296038295097253E-3</v>
+        <v>2.6587185125356125E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.5531525186974356E-3</v>
+        <v>2.6984065371015629E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.5908769315833888E-3</v>
+        <v>2.7485499920320128E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.6596142362424698E-3</v>
+        <v>2.8524050403205296E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.6882943864039808E-3</v>
+        <v>2.8560483040559513E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21AF18-E41A-4B31-8D96-6A3A3B048707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3687D9-89B6-4A02-8B8A-CFEA5EACE775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -385,14 +385,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1327,8 +1326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1336,6 +1333,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1774,133 +1773,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1689948446677165E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.1954910730135099E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2219873013593033E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.2484835297050968E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.2749797580508902E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.3014759863966836E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.3279722147424771E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.3544684430882705E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.3809646714340639E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.4074608997798574E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.4339571281256508E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.4604533564714442E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.4869495848172376E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.5134458131630327E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.6011837400814692E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>3.6765672079173311E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>3.736430585304968E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>3.8928883765267276E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>3.9446747162568221E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>3.9823101405773444E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.1199473204362889E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.1313289936177025E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.1334468996044436E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.1357470435096535E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.1427122401939349E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.154939817739491E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.1688094432107664E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.1859603308611211E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.2027564609660228E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.2168774723272802E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.2290738034426306E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.2495638955627015E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.2530341133255339E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.2563408484261415E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.257457185090017E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.2549536074558018E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.2483576932089885E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.2420044731809718E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.2413535117129356E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.2346108578435258E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.2307229280284277E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.2467076402359958E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.2417015147939801E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,169 +4711,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.236427364823752E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.2882977835183994E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.3401682022130295E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.3920386209076769E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.4439090396023069E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.4957794582969543E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.5476498769915844E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5995202956862317E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.6513907143808618E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.7032611330755092E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.7551315517701392E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.8070019704647866E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.8588723891594167E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.9107428078540641E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.9626132265486941E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.0144836452433242E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.0663540639379716E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>5.1182244826326016E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>5.170094901327249E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>5.2219653200218791E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>5.2738357387165265E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>5.3257061574111565E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>5.3775765761058039E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>5.429446994800434E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.4813174134950814E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>5.6525537747016295E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.6816948983254214E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.7128317518608321E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.7537137435165198E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.8053804811384778E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.8402553055494823E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.8760417107298871E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.9096130220580865E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.946019196444121E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.9865845018156332E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>6.0321943227520944E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>6.0839429137508894E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>6.1395089969970801E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>6.1977379967962927E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>6.2567088851316315E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>6.3167004143386532E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>6.3779136032516399E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>6.437466870978497E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>6.4981143154692399E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>6.5593323238593052E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>6.6206558943440969E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>6.6830617483670774E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>6.7444724581067943E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>6.8055623616867665E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>6.8655076394605308E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.9253674881163997E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.9843365885812099E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>7.0421403083949718E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>7.0992567085904998E-4</c:v>
+                  <c:v>5.7245968727451246E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,199 +5703,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>5.6550914138770239E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.5917423769000218E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.5283933399230198E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.4650443029460177E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.401695265969033E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.338346228992031E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.2749971920150289E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>5.2116481550380268E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.1482991180610421E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.0849500810840401E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.021601044107038E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.9582520071300533E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.8949029701530512E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.8315539331760492E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.7682048961990471E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.7048558592220624E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.6415068222450603E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5781577852680583E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.5148087482910562E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.4514597113140715E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.3881106743370694E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.3247616373600674E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2614126003830653E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.1980635634060806E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.1347145264290786E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.0713654894520765E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.0080164524750744E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.9446674154980897E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8813183785210877E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8179693415440856E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7546203045671009E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.6912712675900988E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.6279222306130968E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.5645731936360947E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.50122415665911E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8258341226368855E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.0425177990638558E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.1369602145278982E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.1866725580745358E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.2176784865192677E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.2673519826153288E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.3038240919707824E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.3340389823551702E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.3475402773417714E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.3555107094994109E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.3533649804280095E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.3530916094466514E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.3543094523282268E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.3562165718775656E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.3577393040427292E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.3592389782957394E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.3615828155893885E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.3637923107499002E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.3656727929620473E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.3676884833871952E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.3691991114356807E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.3705013729136348E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.3713686099786852E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.3722694633495147E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.3729739602263772E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.3742953237129352E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.3751721202413692E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.3760101841942016E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.3764787130259203E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.3772719520374359E-4</c:v>
+                  <c:v>7.1745362435245036E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7788,8 +7787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9128,99 +9127,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3780336177922486E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.394702045298585E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4113704728049271E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4280389003112637E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4447073278176057E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4613757553239421E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4780441828302841E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4947126103366205E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5113810378429625E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5280494653492991E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5447178928556411E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5613863203619775E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5780547478683195E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5947231753746559E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6113916028809925E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6280600303873345E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6447284578936709E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.661396885400013E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6780653129063493E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6947337404126914E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.711402167919028E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.72807059542537E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7447390229317064E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7614074504380484E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -9228,23 +9227,23 @@
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8164338208636196E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8257982470394711E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8358039959613347E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8489413203048922E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.865544295415052E-3</v>
+        <v>1.8395846877216544E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -9445,99 +9444,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO6</f>
@@ -9545,23 +9544,23 @@
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -9762,99 +9761,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -9862,23 +9861,23 @@
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.6957661324104886E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
+        <v>1.7173790618235372E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10770,10 +10769,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10783,7 +10782,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10878,134 +10877,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.7968922323952086E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.7765351800131182E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.7561781276310348E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.7358210752489514E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.7154640228668611E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.6951069704847777E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.6747499181026873E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.6543928657206039E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.6340358133385205E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.6136787609564301E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.5933217085743467E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.5729646561922633E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.552607603810173E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.5322505514280896E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.5118934990460062E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.4915364466639158E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.4711793942818324E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.450822341899749E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.4304652895176587E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.4101082371355753E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.3897511847534849E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.3693941323714015E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.3490370799893181E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.3286800276072278E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.3083229752251443E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2879659228430609E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2676088704609706E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2472518180788872E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2268947656968038E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2065377133147134E-3</v>
-      </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11100,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11195,134 +11192,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22">
-        <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
-      </c>
-      <c r="C5" s="22">
-        <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
-      </c>
-      <c r="D5" s="22">
-        <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
-      </c>
-      <c r="E5" s="22">
-        <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
-      </c>
-      <c r="F5" s="22">
-        <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
-      </c>
-      <c r="G5" s="22">
-        <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
-      </c>
-      <c r="H5" s="22">
-        <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
-      </c>
-      <c r="I5" s="22">
-        <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
-      </c>
-      <c r="J5" s="22">
-        <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
-      </c>
-      <c r="K5" s="22">
-        <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
-      </c>
-      <c r="L5" s="22">
-        <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
-      </c>
-      <c r="M5" s="22">
-        <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
-      </c>
-      <c r="N5" s="22">
-        <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
-      </c>
-      <c r="O5" s="22">
-        <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
-      </c>
-      <c r="P5" s="22">
-        <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
-      </c>
-      <c r="Q5" s="22">
-        <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
-      </c>
-      <c r="R5" s="22">
-        <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
-      </c>
-      <c r="S5" s="22">
-        <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
-      </c>
-      <c r="T5" s="22">
-        <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
-      </c>
-      <c r="U5" s="22">
-        <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
-      </c>
-      <c r="V5" s="22">
-        <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
-      </c>
-      <c r="W5" s="22">
-        <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
-      </c>
-      <c r="X5" s="22">
-        <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
-      </c>
-      <c r="Y5" s="22">
-        <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
-      </c>
-      <c r="Z5" s="22">
-        <f>Extrapolations!AO6</f>
-        <v>5.7245968727451246E-4</v>
-      </c>
-      <c r="AA5" s="22">
-        <f>Extrapolations!AP6</f>
-        <v>5.6525537747016295E-4</v>
-      </c>
-      <c r="AB5" s="22">
-        <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
-      </c>
-      <c r="AC5" s="22">
-        <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
-      </c>
-      <c r="AE5" s="22">
-        <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
-      </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="B5" s="29">
+        <f>Extrapolations!G8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="C5" s="29">
+        <f>Extrapolations!H8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="D5" s="29">
+        <f>Extrapolations!I8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="E5" s="29">
+        <f>Extrapolations!J8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="F5" s="29">
+        <f>Extrapolations!K8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="G5" s="29">
+        <f>Extrapolations!L8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="H5" s="29">
+        <f>Extrapolations!M8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="I5" s="29">
+        <f>Extrapolations!N8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="J5" s="29">
+        <f>Extrapolations!O8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="K5" s="29">
+        <f>Extrapolations!P8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="L5" s="29">
+        <f>Extrapolations!Q8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="M5" s="29">
+        <f>Extrapolations!R8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="N5" s="29">
+        <f>Extrapolations!S8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="O5" s="29">
+        <f>Extrapolations!T8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="P5" s="29">
+        <f>Extrapolations!U8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Q5" s="29">
+        <f>Extrapolations!V8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="R5" s="29">
+        <f>Extrapolations!W8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="S5" s="29">
+        <f>Extrapolations!X8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="T5" s="29">
+        <f>Extrapolations!Y8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="U5" s="29">
+        <f>Extrapolations!Z8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="V5" s="29">
+        <f>Extrapolations!AA8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="W5" s="29">
+        <f>Extrapolations!AB8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="X5" s="29">
+        <f>Extrapolations!AC8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Y5" s="29">
+        <f>Extrapolations!AD8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="Z5" s="29">
+        <f>Extrapolations!AE8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AA5" s="29">
+        <f>Extrapolations!AF8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AB5" s="29">
+        <f>Extrapolations!AG8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AC5" s="29">
+        <f>Extrapolations!AH8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AD5" s="29">
+        <f>Extrapolations!AI8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AE5" s="29">
+        <f>Extrapolations!AJ8</f>
+        <v>7.1745362435245036E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11417,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -11512,165 +11507,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" t="s">
+    <row r="8" spans="1:32" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.7173790618235372E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.6957661324104886E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
-      </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
+        <v>2.1523608730573507E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
+    <row r="13" spans="1:32">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11685,7 +11678,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16206,8 +16199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16388,94 +16381,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.5134458131630327E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.6011837400814692E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>3.6765672079173311E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>3.736430585304968E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>3.8928883765267276E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>3.9446747162568221E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>3.9823101405773444E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.1199473204362889E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.1313289936177025E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.1334468996044436E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.1357470435096535E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.1427122401939349E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.154939817739491E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.1688094432107664E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.1859603308611211E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.2027564609660228E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.2168774723272802E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.2290738034426306E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.2495638955627015E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.2530341133255339E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.2563408484261415E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.257457185090017E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.2549536074558018E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.2483576932089885E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.2420044731809718E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.2413535117129356E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.2346108578435258E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.2307229280284277E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.2467076402359958E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.2417015147939801E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16811,91 +16804,91 @@
         <v>5.7245968727451246E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.8402553055494823E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.8760417107298871E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.9096130220580865E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.946019196444121E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.9865845018156332E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>6.0321943227520944E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>6.0839429137508894E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>6.1395089969970801E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>6.1977379967962927E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>6.2567088851316315E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>6.3167004143386532E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>6.3779136032516399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>6.437466870978497E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>6.4981143154692399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>6.5593323238593052E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>6.6206558943440969E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>6.6830617483670774E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>6.7444724581067943E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>6.8055623616867665E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>6.8655076394605308E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>6.9253674881163997E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>6.9843365885812099E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>7.0421403083949718E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>7.0992567085904998E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -17018,94 +17011,94 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8258341226368855E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="E14" s="4">
-        <v>3.0425177990638558E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="F14" s="4">
-        <v>3.1369602145278982E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="G14" s="4">
-        <v>3.1866725580745358E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="H14" s="4">
-        <v>3.2176784865192677E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="I14" s="4">
-        <v>3.2673519826153288E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="J14" s="4">
-        <v>3.3038240919707824E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="K14" s="4">
-        <v>3.3340389823551702E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="L14" s="4">
-        <v>3.3475402773417714E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="M14" s="4">
-        <v>3.3555107094994109E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="N14" s="4">
-        <v>3.3533649804280095E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="O14" s="4">
-        <v>3.3530916094466514E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="P14" s="4">
-        <v>3.3543094523282268E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.3562165718775656E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="R14" s="4">
-        <v>3.3577393040427292E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="S14" s="4">
-        <v>3.3592389782957394E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="T14" s="4">
-        <v>3.3615828155893885E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="U14" s="4">
-        <v>3.3637923107499002E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="V14" s="4">
-        <v>3.3656727929620473E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="W14" s="4">
-        <v>3.3676884833871952E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="X14" s="4">
-        <v>3.3691991114356807E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.3705013729136348E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.3713686099786852E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.3722694633495147E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.3729739602263772E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.3742953237129352E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.3751721202413692E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.3760101841942016E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.3764787130259203E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.3772719520374359E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -17123,94 +17116,94 @@
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.2294220931562134E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="E15" s="4">
-        <v>9.7770537903301043E-4</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="F15" s="4">
-        <v>1.0080542097404184E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0240291452707345E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0339928217467291E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="I15" s="4">
-        <v>1.049955273747318E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="J15" s="4">
-        <v>1.0616754935969699E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="K15" s="4">
-        <v>1.0713849719983116E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0757235789035442E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0782848570647235E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="N15" s="4">
-        <v>1.0775953324691067E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="O15" s="4">
-        <v>1.0775074853975044E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="P15" s="4">
-        <v>1.0778988361191009E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.0785116841499065E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="R15" s="4">
-        <v>1.0790010102695979E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="S15" s="4">
-        <v>1.0794829267876918E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="T15" s="4">
-        <v>1.0802361129581342E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="U15" s="4">
-        <v>1.0809461286247785E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="V15" s="4">
-        <v>1.0815504168148291E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="W15" s="4">
-        <v>1.0821981538212447E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="X15" s="4">
-        <v>1.0826835903137368E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.0831020687371974E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.0833807531687749E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.0836702401149649E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.0838966283997708E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.0843212452052544E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.0846030015461477E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.0848723112720957E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.0850228718239992E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.0852777771687293E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -18627,16 +18620,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.232672246515414E-3</v>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="C5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="D5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="E5">
-        <v>4.2170366328158899E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18645,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.2651109898447668E-3</v>
+        <v>2.1523608730573507E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19158,7 +19151,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.5134458131630327E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19282,15 +19275,15 @@
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="26"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19405,7 +19398,7 @@
       <c r="AM1">
         <v>2019</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="25">
         <v>2020</v>
       </c>
       <c r="AO1">
@@ -19536,175 +19529,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1689948446677165E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.1954910730135099E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2219873013593033E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.2484835297050968E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.2749797580508902E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.3014759863966836E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.3279722147424771E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.3544684430882705E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.3809646714340639E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.4074608997798574E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.4339571281256508E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
-      </c>
-      <c r="AN2" s="28">
-        <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.4604533564714442E-4</v>
+      </c>
+      <c r="AN2" s="26">
+        <f t="shared" si="0"/>
+        <v>3.4869495848172376E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.5134458131630327E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.6011837400814692E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>3.6765672079173311E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>3.736430585304968E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>3.8928883765267276E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>3.9446747162568221E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>3.9823101405773444E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.1199473204362889E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.1313289936177025E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.1334468996044436E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.1357470435096535E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.1427122401939349E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.154939817739491E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.1688094432107664E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.1859603308611211E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.2027564609660228E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.2168774723272802E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.2290738034426306E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.2495638955627015E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.2530341133255339E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.2563408484261415E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.257457185090017E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.2549536074558018E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.2483576932089885E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.2420044731809718E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.2413535117129356E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.2346108578435258E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.2307229280284277E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.2467076402359958E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.2417015147939801E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19792,7 +19785,7 @@
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
         <v>1.0444155998202975E-4</v>
       </c>
-      <c r="AN3" s="28" cm="1">
+      <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
         <v>1.0688599085026222E-4</v>
       </c>
@@ -20047,7 +20040,7 @@
         <f>AM5/AN5*AN4</f>
         <v>1.1237863961245848E-3</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
         <v>1.1204363366810234E-3</v>
       </c>
@@ -20230,7 +20223,7 @@
         <f>V5</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <f>Calculations!B22</f>
         <v>7.8040477200267344E-4</v>
       </c>
@@ -20302,7 +20295,7 @@
         <f t="shared" si="3"/>
         <v>7.4276317604295334E-4</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="26">
         <f t="shared" si="3"/>
         <v>7.4054896451591099E-4</v>
       </c>
@@ -20451,103 +20444,103 @@
       <c r="O6" s="9"/>
       <c r="P6" s="4">
         <f>TREND($AO6:$BR6,$AO$1:$BR$1,P$1)</f>
-        <v>4.236427364823752E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:AN6" si="4">TREND($AO6:$BR6,$AO$1:$BR$1,Q$1)</f>
-        <v>4.2882977835183994E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3401682022130295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3920386209076769E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4439090396023069E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4957794582969543E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5476498769915844E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5995202956862317E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6513907143808618E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="4"/>
-        <v>4.7032611330755092E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>4.7551315517701392E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="4"/>
-        <v>4.8070019704647866E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="4"/>
-        <v>4.8588723891594167E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="4"/>
-        <v>4.9107428078540641E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>4.9626132265486941E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="4"/>
-        <v>5.0144836452433242E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="4"/>
-        <v>5.0663540639379716E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="4"/>
-        <v>5.1182244826326016E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="4"/>
-        <v>5.170094901327249E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>5.2219653200218791E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="4"/>
-        <v>5.2738357387165265E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
-        <v>5.3257061574111565E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AL6" s="4">
         <f t="shared" si="4"/>
-        <v>5.3775765761058039E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="4"/>
-        <v>5.429446994800434E-4</v>
-      </c>
-      <c r="AN6" s="28">
+        <v>5.7245968727451246E-4</v>
+      </c>
+      <c r="AN6" s="26">
         <f t="shared" si="4"/>
-        <v>5.4813174134950814E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AO6" s="10">
         <f>BNVFE!D12</f>
@@ -20555,119 +20548,119 @@
       </c>
       <c r="AP6" s="10">
         <f>BNVFE!E12</f>
-        <v>5.6525537747016295E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AQ6" s="10">
         <f>BNVFE!F12</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AR6" s="10">
         <f>BNVFE!G12</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AS6" s="10">
         <f>BNVFE!H12</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AT6" s="10">
         <f>BNVFE!I12</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AU6" s="10">
         <f>BNVFE!J12</f>
-        <v>5.8402553055494823E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AV6" s="10">
         <f>BNVFE!K12</f>
-        <v>5.8760417107298871E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AW6" s="10">
         <f>BNVFE!L12</f>
-        <v>5.9096130220580865E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AX6" s="10">
         <f>BNVFE!M12</f>
-        <v>5.946019196444121E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AY6" s="10">
         <f>BNVFE!N12</f>
-        <v>5.9865845018156332E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="AZ6" s="10">
         <f>BNVFE!O12</f>
-        <v>6.0321943227520944E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BA6" s="10">
         <f>BNVFE!P12</f>
-        <v>6.0839429137508894E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BB6" s="10">
         <f>BNVFE!Q12</f>
-        <v>6.1395089969970801E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BC6" s="10">
         <f>BNVFE!R12</f>
-        <v>6.1977379967962927E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BD6" s="10">
         <f>BNVFE!S12</f>
-        <v>6.2567088851316315E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BE6" s="10">
         <f>BNVFE!T12</f>
-        <v>6.3167004143386532E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BF6" s="10">
         <f>BNVFE!U12</f>
-        <v>6.3779136032516399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BG6" s="10">
         <f>BNVFE!V12</f>
-        <v>6.437466870978497E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BH6" s="10">
         <f>BNVFE!W12</f>
-        <v>6.4981143154692399E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BI6" s="10">
         <f>BNVFE!X12</f>
-        <v>6.5593323238593052E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BJ6" s="10">
         <f>BNVFE!Y12</f>
-        <v>6.6206558943440969E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BK6" s="10">
         <f>BNVFE!Z12</f>
-        <v>6.6830617483670774E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BL6" s="10">
         <f>BNVFE!AA12</f>
-        <v>6.7444724581067943E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BM6" s="10">
         <f>BNVFE!AB12</f>
-        <v>6.8055623616867665E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BN6" s="10">
         <f>BNVFE!AC12</f>
-        <v>6.8655076394605308E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BO6" s="10">
         <f>BNVFE!AD12</f>
-        <v>6.9253674881163997E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BP6" s="10">
         <f>BNVFE!AE12</f>
-        <v>6.9843365885812099E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BQ6" s="10">
         <f>BNVFE!AF12</f>
-        <v>7.0421403083949718E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BR6" s="10">
         <f>BNVFE!AG12</f>
-        <v>7.0992567085904998E-4</v>
+        <v>5.7245968727451246E-4</v>
       </c>
       <c r="BS6" s="10"/>
       <c r="BT6" s="4"/>
@@ -20788,7 +20781,7 @@
         <f t="shared" si="5"/>
         <v>4.6159076773102222E-5</v>
       </c>
-      <c r="AN7" s="28">
+      <c r="AN7" s="26">
         <f t="shared" si="5"/>
         <v>4.6599105683549815E-5</v>
       </c>
@@ -20926,264 +20919,264 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4">
-        <f>TREND($AO8:$AT8,$AO$1:$AT$1,F$1)</f>
-        <v>5.6550914138770239E-4</v>
+        <f>SYFAFE!$E$5</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:AN9" si="6">TREND($AO8:$AT8,$AO$1:$AT$1,G$1)</f>
-        <v>5.5917423769000218E-4</v>
+        <f>F8</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="6"/>
-        <v>5.5283933399230198E-4</v>
+        <f t="shared" ref="H8:BR8" si="6">G8</f>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>5.4650443029460177E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>5.401695265969033E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>5.338346228992031E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2749971920150289E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2116481550380268E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>5.1482991180610421E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>5.0849500810840401E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>5.021601044107038E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>4.9582520071300533E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8949029701530512E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8315539331760492E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7682048961990471E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7048558592220624E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>4.6415068222450603E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5781577852680583E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5148087482910562E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>4.4514597113140715E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3881106743370694E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3247616373600674E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>4.2614126003830653E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1980635634060806E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1347145264290786E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0713654894520765E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0080164524750744E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446674154980897E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8813183785210877E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8179693415440856E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.7546203045671009E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6912712675900988E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6279222306130968E-4</v>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="6"/>
-        <v>3.5645731936360947E-4</v>
-      </c>
-      <c r="AN8" s="28">
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AN8" s="4">
         <f t="shared" si="6"/>
-        <v>3.50122415665911E-4</v>
-      </c>
-      <c r="AO8" s="10">
-        <f>BNVFE!D14</f>
-        <v>3.8258341226368855E-4</v>
-      </c>
-      <c r="AP8" s="10">
-        <f>BNVFE!E14</f>
-        <v>3.0425177990638558E-4</v>
-      </c>
-      <c r="AQ8" s="10">
-        <f>BNVFE!F14</f>
-        <v>3.1369602145278982E-4</v>
-      </c>
-      <c r="AR8" s="10">
-        <f>BNVFE!G14</f>
-        <v>3.1866725580745358E-4</v>
-      </c>
-      <c r="AS8" s="10">
-        <f>BNVFE!H14</f>
-        <v>3.2176784865192677E-4</v>
-      </c>
-      <c r="AT8" s="10">
-        <f>BNVFE!I14</f>
-        <v>3.2673519826153288E-4</v>
-      </c>
-      <c r="AU8" s="10">
-        <f>BNVFE!J14</f>
-        <v>3.3038240919707824E-4</v>
-      </c>
-      <c r="AV8" s="10">
-        <f>BNVFE!K14</f>
-        <v>3.3340389823551702E-4</v>
-      </c>
-      <c r="AW8" s="10">
-        <f>BNVFE!L14</f>
-        <v>3.3475402773417714E-4</v>
-      </c>
-      <c r="AX8" s="10">
-        <f>BNVFE!M14</f>
-        <v>3.3555107094994109E-4</v>
-      </c>
-      <c r="AY8" s="10">
-        <f>BNVFE!N14</f>
-        <v>3.3533649804280095E-4</v>
-      </c>
-      <c r="AZ8" s="10">
-        <f>BNVFE!O14</f>
-        <v>3.3530916094466514E-4</v>
-      </c>
-      <c r="BA8" s="10">
-        <f>BNVFE!P14</f>
-        <v>3.3543094523282268E-4</v>
-      </c>
-      <c r="BB8" s="10">
-        <f>BNVFE!Q14</f>
-        <v>3.3562165718775656E-4</v>
-      </c>
-      <c r="BC8" s="10">
-        <f>BNVFE!R14</f>
-        <v>3.3577393040427292E-4</v>
-      </c>
-      <c r="BD8" s="10">
-        <f>BNVFE!S14</f>
-        <v>3.3592389782957394E-4</v>
-      </c>
-      <c r="BE8" s="10">
-        <f>BNVFE!T14</f>
-        <v>3.3615828155893885E-4</v>
-      </c>
-      <c r="BF8" s="10">
-        <f>BNVFE!U14</f>
-        <v>3.3637923107499002E-4</v>
-      </c>
-      <c r="BG8" s="10">
-        <f>BNVFE!V14</f>
-        <v>3.3656727929620473E-4</v>
-      </c>
-      <c r="BH8" s="10">
-        <f>BNVFE!W14</f>
-        <v>3.3676884833871952E-4</v>
-      </c>
-      <c r="BI8" s="10">
-        <f>BNVFE!X14</f>
-        <v>3.3691991114356807E-4</v>
-      </c>
-      <c r="BJ8" s="10">
-        <f>BNVFE!Y14</f>
-        <v>3.3705013729136348E-4</v>
-      </c>
-      <c r="BK8" s="10">
-        <f>BNVFE!Z14</f>
-        <v>3.3713686099786852E-4</v>
-      </c>
-      <c r="BL8" s="10">
-        <f>BNVFE!AA14</f>
-        <v>3.3722694633495147E-4</v>
-      </c>
-      <c r="BM8" s="10">
-        <f>BNVFE!AB14</f>
-        <v>3.3729739602263772E-4</v>
-      </c>
-      <c r="BN8" s="10">
-        <f>BNVFE!AC14</f>
-        <v>3.3742953237129352E-4</v>
-      </c>
-      <c r="BO8" s="10">
-        <f>BNVFE!AD14</f>
-        <v>3.3751721202413692E-4</v>
-      </c>
-      <c r="BP8" s="10">
-        <f>BNVFE!AE14</f>
-        <v>3.3760101841942016E-4</v>
-      </c>
-      <c r="BQ8" s="10">
-        <f>BNVFE!AF14</f>
-        <v>3.3764787130259203E-4</v>
-      </c>
-      <c r="BR8" s="10">
-        <f>BNVFE!AG14</f>
-        <v>3.3772719520374359E-4</v>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AQ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AR8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AS8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AT8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AU8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AV8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AW8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AY8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="AZ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BA8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BB8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BC8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BD8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BE8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BF8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BG8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BH8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BI8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BJ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BK8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BL8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BM8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BN8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BO8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BP8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BQ8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
+      </c>
+      <c r="BR8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1745362435245036E-5</v>
       </c>
       <c r="BS8" s="10"/>
       <c r="BT8" s="4"/>
@@ -21199,264 +21192,264 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="19">
-        <f>TREND($AO9:$AT9,$AO$1:$AT$1,F$1)</f>
-        <v>1.817249284777292E-3</v>
-      </c>
-      <c r="G9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7968922323952086E-3</v>
-      </c>
-      <c r="H9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7765351800131182E-3</v>
-      </c>
-      <c r="I9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7561781276310348E-3</v>
-      </c>
-      <c r="J9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7358210752489514E-3</v>
-      </c>
-      <c r="K9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.7154640228668611E-3</v>
-      </c>
-      <c r="L9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6951069704847777E-3</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6747499181026873E-3</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6543928657206039E-3</v>
-      </c>
-      <c r="O9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6340358133385205E-3</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.6136787609564301E-3</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5933217085743467E-3</v>
-      </c>
-      <c r="R9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5729646561922633E-3</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.552607603810173E-3</v>
-      </c>
-      <c r="T9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5322505514280896E-3</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5118934990460062E-3</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4915364466639158E-3</v>
-      </c>
-      <c r="W9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4711793942818324E-3</v>
-      </c>
-      <c r="X9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.450822341899749E-3</v>
-      </c>
-      <c r="Y9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4304652895176587E-3</v>
-      </c>
-      <c r="Z9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.4101082371355753E-3</v>
-      </c>
-      <c r="AA9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3897511847534849E-3</v>
-      </c>
-      <c r="AB9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3693941323714015E-3</v>
-      </c>
-      <c r="AC9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3490370799893181E-3</v>
-      </c>
-      <c r="AD9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3286800276072278E-3</v>
-      </c>
-      <c r="AE9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.3083229752251443E-3</v>
-      </c>
-      <c r="AF9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2879659228430609E-3</v>
-      </c>
-      <c r="AG9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2676088704609706E-3</v>
-      </c>
-      <c r="AH9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2472518180788872E-3</v>
-      </c>
-      <c r="AI9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2268947656968038E-3</v>
-      </c>
-      <c r="AJ9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2065377133147134E-3</v>
-      </c>
-      <c r="AK9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.18618066093263E-3</v>
-      </c>
-      <c r="AL9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.1658236085505466E-3</v>
-      </c>
-      <c r="AM9" s="19">
-        <f t="shared" si="6"/>
-        <v>1.1454665561684563E-3</v>
-      </c>
-      <c r="AN9" s="29">
-        <f t="shared" si="6"/>
-        <v>1.1251095037863729E-3</v>
-      </c>
-      <c r="AO9" s="10">
-        <f>BNVFE!D15</f>
-        <v>1.2294220931562134E-3</v>
-      </c>
-      <c r="AP9" s="10">
-        <f>BNVFE!E15</f>
-        <v>9.7770537903301043E-4</v>
-      </c>
-      <c r="AQ9" s="10">
-        <f>BNVFE!F15</f>
-        <v>1.0080542097404184E-3</v>
-      </c>
-      <c r="AR9" s="10">
-        <f>BNVFE!G15</f>
-        <v>1.0240291452707345E-3</v>
-      </c>
-      <c r="AS9" s="10">
-        <f>BNVFE!H15</f>
-        <v>1.0339928217467291E-3</v>
-      </c>
-      <c r="AT9" s="10">
-        <f>BNVFE!I15</f>
-        <v>1.049955273747318E-3</v>
-      </c>
-      <c r="AU9" s="10">
-        <f>BNVFE!J15</f>
-        <v>1.0616754935969699E-3</v>
-      </c>
-      <c r="AV9" s="10">
-        <f>BNVFE!K15</f>
-        <v>1.0713849719983116E-3</v>
-      </c>
-      <c r="AW9" s="10">
-        <f>BNVFE!L15</f>
-        <v>1.0757235789035442E-3</v>
-      </c>
-      <c r="AX9" s="10">
-        <f>BNVFE!M15</f>
-        <v>1.0782848570647235E-3</v>
-      </c>
-      <c r="AY9" s="10">
-        <f>BNVFE!N15</f>
-        <v>1.0775953324691067E-3</v>
-      </c>
-      <c r="AZ9" s="10">
-        <f>BNVFE!O15</f>
-        <v>1.0775074853975044E-3</v>
-      </c>
-      <c r="BA9" s="10">
-        <f>BNVFE!P15</f>
-        <v>1.0778988361191009E-3</v>
-      </c>
-      <c r="BB9" s="10">
-        <f>BNVFE!Q15</f>
-        <v>1.0785116841499065E-3</v>
-      </c>
-      <c r="BC9" s="10">
-        <f>BNVFE!R15</f>
-        <v>1.0790010102695979E-3</v>
-      </c>
-      <c r="BD9" s="10">
-        <f>BNVFE!S15</f>
-        <v>1.0794829267876918E-3</v>
-      </c>
-      <c r="BE9" s="10">
-        <f>BNVFE!T15</f>
-        <v>1.0802361129581342E-3</v>
-      </c>
-      <c r="BF9" s="10">
-        <f>BNVFE!U15</f>
-        <v>1.0809461286247785E-3</v>
-      </c>
-      <c r="BG9" s="10">
-        <f>BNVFE!V15</f>
-        <v>1.0815504168148291E-3</v>
-      </c>
-      <c r="BH9" s="10">
-        <f>BNVFE!W15</f>
-        <v>1.0821981538212447E-3</v>
-      </c>
-      <c r="BI9" s="10">
-        <f>BNVFE!X15</f>
-        <v>1.0826835903137368E-3</v>
-      </c>
-      <c r="BJ9" s="10">
-        <f>BNVFE!Y15</f>
-        <v>1.0831020687371974E-3</v>
-      </c>
-      <c r="BK9" s="10">
-        <f>BNVFE!Z15</f>
-        <v>1.0833807531687749E-3</v>
-      </c>
-      <c r="BL9" s="10">
-        <f>BNVFE!AA15</f>
-        <v>1.0836702401149649E-3</v>
-      </c>
-      <c r="BM9" s="10">
-        <f>BNVFE!AB15</f>
-        <v>1.0838966283997708E-3</v>
-      </c>
-      <c r="BN9" s="10">
-        <f>BNVFE!AC15</f>
-        <v>1.0843212452052544E-3</v>
-      </c>
-      <c r="BO9" s="10">
-        <f>BNVFE!AD15</f>
-        <v>1.0846030015461477E-3</v>
-      </c>
-      <c r="BP9" s="10">
-        <f>BNVFE!AE15</f>
-        <v>1.0848723112720957E-3</v>
-      </c>
-      <c r="BQ9" s="10">
-        <f>BNVFE!AF15</f>
-        <v>1.0850228718239992E-3</v>
-      </c>
-      <c r="BR9" s="10">
-        <f>BNVFE!AG15</f>
-        <v>1.0852777771687293E-3</v>
+        <f>SYFAFE!$B$5</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:BR9" si="7">G9</f>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AE9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AK9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AL9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AM9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AQ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AR9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AS9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AT9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AU9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AV9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AW9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AX9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AY9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="AZ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BA9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BB9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BC9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BD9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BE9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BF9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BG9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BH9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BI9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BJ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BK9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BL9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BM9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BN9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BO9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BP9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BQ9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
+      </c>
+      <c r="BR9" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5686214263268839E-4</v>
       </c>
       <c r="BS9" s="10"/>
       <c r="BT9" s="4"/>
@@ -21476,139 +21469,139 @@
         <v>3.2890937975528366E-3</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:AN13" si="7">TREND($AO10:$BR10,$AO$1:$BR$1,G$1)</f>
+        <f t="shared" ref="G10:AN13" si="8">TREND($AO10:$BR10,$AO$1:$BR$1,G$1)</f>
         <v>3.2917330420467188E-3</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.294372286540601E-3</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2970115310344832E-3</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2996507755283645E-3</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3022900200222467E-3</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3049292645161289E-3</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3075685090100111E-3</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3102077535038933E-3</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3128469979977755E-3</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3154862424916577E-3</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.318125486985539E-3</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3207647314794212E-3</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3234039759733034E-3</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3260432204671856E-3</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3286824649610678E-3</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.33132170945495E-3</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3339609539488322E-3</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3366001984427144E-3</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3392394429365957E-3</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3418786874304779E-3</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3445179319243601E-3</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3471571764182423E-3</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3497964209121245E-3</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3524356654060067E-3</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3550749098998889E-3</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3577141543937711E-3</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3603533988876525E-3</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3629926433815347E-3</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3656318878754169E-3</v>
       </c>
       <c r="AJ10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3682711323692991E-3</v>
       </c>
       <c r="AK10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3709103768631813E-3</v>
       </c>
       <c r="AL10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3735496213570635E-3</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3761888658509456E-3</v>
       </c>
-      <c r="AN10" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN10" s="26">
+        <f t="shared" si="8"/>
         <v>3.3788281103448278E-3</v>
       </c>
       <c r="AO10" s="10">
@@ -21750,135 +21743,135 @@
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AH11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AJ11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AK11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AL11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AM11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
-      <c r="AN11" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN11" s="26">
+        <f t="shared" si="8"/>
         <v>1.2594546332724645E-5</v>
       </c>
       <c r="AO11" s="10">
@@ -22020,135 +22013,135 @@
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
-      <c r="AN12" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN12" s="26">
+        <f t="shared" si="8"/>
         <v>5.2454271866069317E-3</v>
       </c>
       <c r="AO12" s="10">
@@ -22306,71 +22299,71 @@
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
-      <c r="AN13" s="28">
-        <f t="shared" si="7"/>
+      <c r="AN13" s="26">
+        <f t="shared" si="8"/>
         <v>1.4345302324303025E-3</v>
       </c>
       <c r="AO13" s="10">
@@ -22524,74 +22517,74 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14">
-        <f t="shared" ref="W14:AM14" si="8">$AO14</f>
+        <f t="shared" ref="W14:AM14" si="9">$AO14</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM14" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="28">
         <f>$AO14</f>
         <v>0</v>
       </c>
@@ -22718,10 +22711,10 @@
       <c r="BS14" s="11"/>
     </row>
     <row r="15" spans="1:72">
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="X15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AN15" s="27"/>
+      <c r="AN15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22737,7 +22730,7 @@
   <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22973,123 +22966,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.6491869578213529E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.5434143118335762E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5938245579985413E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5673597291661197E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5001004459842016E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.2421067232572473E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.2281494881004815E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.216471004014191E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.2157787520010301E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.21518126095359E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.2237982474551686E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.2232910952030141E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.230261074746993E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.2379471109806533E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>3.3048305141780151E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>3.3594130670836631E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>3.4091724290291815E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>3.5476961338184239E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>3.5907190164345085E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>3.626297992090949E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>3.7493915890105976E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>3.7552409347380434E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>3.7574684426413548E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>3.7540611772019785E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>3.7600738009461071E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>3.7475309506278861E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>3.7612176000740666E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>3.7707899733741858E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>3.7865539671164459E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>3.793930531609804E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23100,123 +23093,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1689948446677165E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.1954910730135099E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2219873013593033E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.2484835297050968E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.2749797580508902E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.3014759863966836E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.3279722147424771E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.3544684430882705E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.3809646714340639E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.4074608997798574E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.4339571281256508E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.4604533564714442E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.4869495848172376E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.5134458131630327E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.6011837400814692E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>3.6765672079173311E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>3.736430585304968E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>3.8928883765267276E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>3.9446747162568221E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>3.9823101405773444E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.1199473204362889E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.1313289936177025E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.1334468996044436E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.1357470435096535E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.1427122401939349E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.154939817739491E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.1688094432107664E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.1859603308611211E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.2027564609660228E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.2168774723272802E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23227,123 +23220,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.5637627505836616E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.5427617602883105E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.5261263867406798E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.5168273519838039E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4348041677252866E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.1852793839482163E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.1711080066083321E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.1275689938831239E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.12281533849422E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.1244377846381834E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.1409258893246343E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.149660947480407E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.1655864130425985E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.1812836850398589E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.2534340950334998E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>3.3122717942891744E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>3.3660970862010116E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>3.5075685674517315E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>3.5506842438112659E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>3.5899133849685383E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>3.7158050293309159E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>3.7250082623344597E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>3.732076820565791E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>3.7340190863010219E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>3.7436255674953617E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>3.7367572530025347E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>3.753843882637504E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>3.767035338732028E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>3.7806708002914585E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>3.7906432409328105E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23354,123 +23347,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.770030395892457E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>5.1565191072000234E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>5.0655427468507849E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.1230151671061109E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.057957327894093E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>4.7149665558890241E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>4.7299583719891884E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>4.7114949083498103E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>4.7233122224492742E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>4.7484817881709057E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>4.7725921150277634E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>4.7944511876494916E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>4.8224231408656933E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>4.8523699169033819E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>4.9645320107814599E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>5.0631914840744451E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>5.1461221884438588E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>5.3635081947590716E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>5.4335798852553027E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>5.4940992391592244E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>5.6842996426768682E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>5.7000753402081756E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>5.707705408366043E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>5.7151824558879846E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>5.7300097326242578E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>5.7287583682467122E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>5.7536335602862711E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>5.7786091743895448E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>5.7953758615710883E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>5.8150534020495943E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23481,123 +23474,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>3.1744854324820717E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>3.0634041173760126E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.1631260057212433E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1668304561611668E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1105040315615982E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>2.904534915283473E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>2.896308481447913E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>2.8856459352085231E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>2.8842815300220999E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>2.8862132779813285E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>2.8993427425732799E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>2.9074003911273041E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>2.9226290833281419E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>2.937887619941194E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.0033596504796238E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.0561694929662176E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.1033762400137736E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.231400555609079E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.2695932283305509E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.3032276638030907E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>3.4154676660143898E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>3.420449768741958E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>3.4216652058283842E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>3.418502489054371E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>3.422529850790624E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>3.4093529749808124E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>3.4218633785776896E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>3.4301574950155089E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>3.4382818379754854E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>3.4435480774975858E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3687D9-89B6-4A02-8B8A-CFEA5EACE775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BBB26-2C5B-4C09-BC97-E4961155787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1773,133 +1773,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.1689948446677165E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.1954910730135099E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.2219873013593033E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.2484835297050968E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2749797580508902E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.3014759863966836E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3279722147424771E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3544684430882705E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3809646714340639E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4074608997798574E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4339571281256508E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4604533564714442E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.4869495848172376E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5134458131630327E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6011837400814692E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6765672079173311E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.736430585304968E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8928883765267276E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9446747162568221E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9823101405773444E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.1199473204362889E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.1313289936177025E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.1334468996044436E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.1357470435096535E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.1427122401939349E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.154939817739491E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1688094432107664E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.1859603308611211E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.2027564609660228E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.2168774723272802E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.2290738034426306E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.2495638955627015E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.2530341133255339E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.2563408484261415E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.257457185090017E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.2549536074558018E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.2483576932089885E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.2420044731809718E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.2413535117129356E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.2346108578435258E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.2307229280284277E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2467076402359958E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.2417015147939801E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16200,7 +16200,7 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AG20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16381,94 +16381,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5134458131630327E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6011837400814692E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6765672079173311E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.736430585304968E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8928883765267276E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9446747162568221E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9823101405773444E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.1199473204362889E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.1313289936177025E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.1334468996044436E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.1357470435096535E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.1427122401939349E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.154939817739491E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1688094432107664E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.1859603308611211E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.2027564609660228E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.2168774723272802E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.2290738034426306E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.2495638955627015E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.2530341133255339E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.2563408484261415E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.257457185090017E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.2549536074558018E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.2483576932089885E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.2420044731809718E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.2413535117129356E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.2346108578435258E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.2307229280284277E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.2467076402359958E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.2417015147939801E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5134458131630327E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19529,175 +19529,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.1689948446677165E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.1954910730135099E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2219873013593033E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2484835297050968E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2749797580508902E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3014759863966836E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3279722147424771E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3544684430882705E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3809646714340639E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4074608997798574E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4339571281256508E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4604533564714442E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.4869495848172376E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5134458131630327E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6011837400814692E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6765672079173311E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.736430585304968E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8928883765267276E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9446747162568221E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9823101405773444E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.1199473204362889E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.1313289936177025E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.1334468996044436E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.1357470435096535E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.1427122401939349E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.154939817739491E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1688094432107664E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.1859603308611211E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.2027564609660228E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.2168774723272802E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.2290738034426306E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.2495638955627015E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.2530341133255339E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.2563408484261415E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.257457185090017E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.2549536074558018E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.2483576932089885E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.2420044731809718E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.2413535117129356E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.2346108578435258E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.2307229280284277E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.2467076402359958E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.2417015147939801E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -22966,123 +22966,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6491869578213529E-4</v>
+        <v>3.6773655474057739E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5434143118335762E-4</v>
+        <v>3.5976842082089582E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5938245579985413E-4</v>
+        <v>3.6757085434956571E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.5673597291661197E-4</v>
+        <v>3.67485043084539E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5001004459842016E-4</v>
+        <v>3.6308639538755298E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2421067232572473E-4</v>
+        <v>3.3862900642764912E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2281494881004815E-4</v>
+        <v>3.3943057282821812E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.216471004014191E-4</v>
+        <v>3.4041823774591409E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2157787520010301E-4</v>
+        <v>3.4252539976387765E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.21518126095359E-4</v>
+        <v>3.4460787718934045E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2237982474551686E-4</v>
+        <v>3.4765012147470174E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2232910952030141E-4</v>
+        <v>3.4968132096095504E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.230261074746993E-4</v>
+        <v>3.5249609679543592E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2379471109806533E-4</v>
+        <v>3.5536722744245131E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3048305141780151E-4</v>
+        <v>3.6148257419113056E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3594130670836631E-4</v>
+        <v>3.664339997180947E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4091724290291815E-4</v>
+        <v>3.7106858296827262E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5476961338184239E-4</v>
+        <v>3.8411030958242069E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5907190164345085E-4</v>
+        <v>3.8812122876113119E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.626297992090949E-4</v>
+        <v>3.9150340258291803E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.7493915890105976E-4</v>
+        <v>4.03112372133042E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7552409347380434E-4</v>
+        <v>4.0360787000657248E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7574684426413548E-4</v>
+        <v>4.0382283711848821E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7540611772019785E-4</v>
+        <v>4.0343001609921412E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.7600738009461071E-4</v>
+        <v>4.0399408750656777E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.7475309506278861E-4</v>
+        <v>4.0250398522270639E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7612176000740666E-4</v>
+        <v>4.0381262204317188E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7707899733741858E-4</v>
+        <v>4.0464211986551089E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7865539671164459E-4</v>
+        <v>4.061398198412998E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.793930531609804E-4</v>
+        <v>4.0676965949352643E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23093,123 +23093,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.1689948446677165E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.1954910730135099E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.2219873013593033E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.2484835297050968E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.2749797580508902E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.3014759863966836E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3279722147424771E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3544684430882705E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3809646714340639E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4074608997798574E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4339571281256508E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4604533564714442E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.4869495848172376E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5134458131630327E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6011837400814692E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6765672079173311E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.736430585304968E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8928883765267276E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9446747162568221E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9823101405773444E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.1199473204362889E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.1313289936177025E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.1334468996044436E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.1357470435096535E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.1427122401939349E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.154939817739491E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1688094432107664E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.1859603308611211E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.2027564609660228E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.2168774723272802E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23220,123 +23220,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5637627505836616E-4</v>
+        <v>3.5912817045549592E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5427617602883105E-4</v>
+        <v>3.5970216623752401E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5261263867406798E-4</v>
+        <v>3.6064678940271876E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.5168273519838039E-4</v>
+        <v>3.6227954259795134E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4348041677252866E-4</v>
+        <v>3.5631282112271915E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1852793839482163E-4</v>
+        <v>3.3269354930339661E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1711080066083321E-4</v>
+        <v>3.3343282619064117E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1275689938831239E-4</v>
+        <v>3.3100920978231121E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.12281533849422E-4</v>
+        <v>3.326234964208629E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1244377846381834E-4</v>
+        <v>3.3488185734666483E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1409258893246343E-4</v>
+        <v>3.387132764367971E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.149660947480407E-4</v>
+        <v>3.4169349530148885E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1655864130425985E-4</v>
+        <v>3.4543859732872489E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.1812836850398589E-4</v>
+        <v>3.4914837213574049E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2534340950334998E-4</v>
+        <v>3.5586083055954025E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3122717942891744E-4</v>
+        <v>3.6129198091988776E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3660970862010116E-4</v>
+        <v>3.6638008253103504E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5075685674517315E-4</v>
+        <v>3.797656838426424E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5506842438112659E-4</v>
+        <v>3.8379386561392104E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5899133849685383E-4</v>
+        <v>3.8757523740699085E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.7158050293309159E-4</v>
+        <v>3.9950134420415153E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7250082623344597E-4</v>
+        <v>4.0035850605750056E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.732076820565791E-4</v>
+        <v>4.0109394743594799E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7340190863010219E-4</v>
+        <v>4.012761936991058E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.7436255674953617E-4</v>
+        <v>4.0222683786844709E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.7367572530025347E-4</v>
+        <v>4.0134683501182901E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.753843882637504E-4</v>
+        <v>4.0302096346638407E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.767035338732028E-4</v>
+        <v>4.0423921136844502E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7806708002914585E-4</v>
+        <v>4.0550880062563649E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7906432409328105E-4</v>
+        <v>4.0641720967975257E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23347,123 +23347,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.770030395892457E-4</v>
+        <v>5.8145858873744711E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1565191072000234E-4</v>
+        <v>5.2354948444348316E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0655427468507849E-4</v>
+        <v>5.1809592960240015E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1230151671061109E-4</v>
+        <v>5.2773804503500592E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.057957327894093E-4</v>
+        <v>5.2469222599488079E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7149665558890241E-4</v>
+        <v>4.9246510878464057E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7299583719891884E-4</v>
+        <v>4.9734142906827569E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7114949083498103E-4</v>
+        <v>4.9864550056494565E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7233122224492742E-4</v>
+        <v>5.0309879253892425E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7484817881709057E-4</v>
+        <v>5.0894929277128537E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.7725921150277634E-4</v>
+        <v>5.1466999519847565E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.7944511876494916E-4</v>
+        <v>5.2012988435178866E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8224231408656933E-4</v>
+        <v>5.2623775444660776E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8523699169033819E-4</v>
+        <v>5.3255139284003441E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9645320107814599E-4</v>
+        <v>5.4302083063339991E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0631914840744451E-4</v>
+        <v>5.522766833965494E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1461221884438588E-4</v>
+        <v>5.601254580107081E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3635081947590716E-4</v>
+        <v>5.807089207832928E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.4335798852553027E-4</v>
+        <v>5.8731627063682789E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4940992391592244E-4</v>
+        <v>5.931554855531328E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6842996426768682E-4</v>
+        <v>6.1114222360517459E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.7000753402081756E-4</v>
+        <v>6.1263586196471168E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.707705408366043E-4</v>
+        <v>6.1341880221425316E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.7151824558879846E-4</v>
+        <v>6.1418182638870312E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.7300097326242578E-4</v>
+        <v>6.1565016430071618E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.7287583682467122E-4</v>
+        <v>6.1529793989050126E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.7536335602862711E-4</v>
+        <v>6.1772279652446511E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.7786091743895448E-4</v>
+        <v>6.2010047833741867E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7953758615710883E-4</v>
+        <v>6.2160289507864192E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.8150534020495943E-4</v>
+        <v>6.234661580070439E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23474,123 +23474,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1744854324820717E-4</v>
+        <v>3.1989984330977049E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0634041173760126E-4</v>
+        <v>3.1103223181211821E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1631260057212433E-4</v>
+        <v>3.2351966813477334E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1668304561611668E-4</v>
+        <v>3.2622525200054595E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1105040315615982E-4</v>
+        <v>3.2267122446555342E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.904534915283473E-4</v>
+        <v>3.0337057242480451E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.896308481447913E-4</v>
+        <v>3.0453845169467914E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8856459352085231E-4</v>
+        <v>3.0540505504212268E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8842815300220999E-4</v>
+        <v>3.0721631066429536E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.8862132779813285E-4</v>
+        <v>3.093486028050069E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.8993427425732799E-4</v>
+        <v>3.1266127073803886E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.9074003911273041E-4</v>
+        <v>3.1541166444595039E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9226290833281419E-4</v>
+        <v>3.1892634075550175E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.937887619941194E-4</v>
+        <v>3.2243546366012341E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0033596504796238E-4</v>
+        <v>3.2850767173068688E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0561694929662176E-4</v>
+        <v>3.3335716351672539E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1033762400137736E-4</v>
+        <v>3.3778444703873312E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.231400555609079E-4</v>
+        <v>3.4986487595933905E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2695932283305509E-4</v>
+        <v>3.534107056332161E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.3032276638030907E-4</v>
+        <v>3.5662399303793859E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.4154676660143898E-4</v>
+        <v>3.6721085010863982E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.420449768741958E-4</v>
+        <v>3.6762499919934348E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.4216652058283842E-4</v>
+        <v>3.6773337479207668E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.418502489054371E-4</v>
+        <v>3.6736921672179983E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.422529850790624E-4</v>
+        <v>3.6772730994967127E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.4093529749808124E-4</v>
+        <v>3.6618194153426438E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.4218633785776896E-4</v>
+        <v>3.6737880391439015E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.4301574950155089E-4</v>
+        <v>3.6808897076111757E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.4382818379754854E-4</v>
+        <v>3.6878469932448562E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.4435480774975858E-4</v>
+        <v>3.6920309090080676E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BBB26-2C5B-4C09-BC97-E4961155787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0C145-5EB0-4280-9DA6-AA87E9CED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3232,136 +3232,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,91 +3695,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3797,34 +3797,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3836,22 +3836,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4236,148 +4236,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16200,7 +16200,7 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16486,94 +16486,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16606,34 +16606,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16645,22 +16645,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16696,94 +16696,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17836,94 +17836,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17931,94 +17931,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18026,94 +18026,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18121,94 +18121,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18216,94 +18216,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18311,94 +18311,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18406,94 +18406,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -19735,179 +19735,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19930,119 +19930,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20082,11 +20082,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20094,15 +20094,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20118,11 +20118,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20130,15 +20130,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20229,195 +20229,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22966,123 +22966,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6773655474057739E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5976842082089582E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.6757085434956571E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.67485043084539E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.6308639538755298E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3862900642764912E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3943057282821812E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4041823774591409E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4252539976387765E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.4460787718934045E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4765012147470174E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4968132096095504E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.5249609679543592E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.5536722744245131E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.6148257419113056E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.664339997180947E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.7106858296827262E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.8411030958242069E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.8812122876113119E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.9150340258291803E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.03112372133042E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.0360787000657248E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.0382283711848821E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.0343001609921412E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.0399408750656777E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.0250398522270639E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.0381262204317188E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.0464211986551089E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.061398198412998E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.0676965949352643E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23220,123 +23220,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5912817045549592E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5970216623752401E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.6064678940271876E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.6227954259795134E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5631282112271915E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3269354930339661E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3343282619064117E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.3100920978231121E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.326234964208629E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.3488185734666483E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.387132764367971E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4169349530148885E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.4543859732872489E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.4914837213574049E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.5586083055954025E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.6129198091988776E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.6638008253103504E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.797656838426424E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.8379386561392104E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.8757523740699085E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.9950134420415153E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.0035850605750056E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.0109394743594799E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.012761936991058E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.0222683786844709E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.0134683501182901E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.0302096346638407E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.0423921136844502E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.0550880062563649E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.0641720967975257E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23347,123 +23347,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.8145858873744711E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2354948444348316E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.1809592960240015E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.2773804503500592E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.2469222599488079E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.9246510878464057E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.9734142906827569E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.9864550056494565E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>5.0309879253892425E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>5.0894929277128537E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>5.1466999519847565E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>5.2012988435178866E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>5.2623775444660776E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>5.3255139284003441E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>5.4302083063339991E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.522766833965494E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.601254580107081E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.807089207832928E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.8731627063682789E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.931554855531328E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>6.1114222360517459E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>6.1263586196471168E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>6.1341880221425316E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>6.1418182638870312E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>6.1565016430071618E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>6.1529793989050126E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>6.1772279652446511E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>6.2010047833741867E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>6.2160289507864192E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>6.234661580070439E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23474,123 +23474,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1989984330977049E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.1103223181211821E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.2351966813477334E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.2622525200054595E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.2267122446555342E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.0337057242480451E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.0453845169467914E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.0540505504212268E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.0721631066429536E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.093486028050069E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1266127073803886E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1541166444595039E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1892634075550175E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2243546366012341E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2850767173068688E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3335716351672539E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3778444703873312E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4986487595933905E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.534107056332161E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5662399303793859E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6721085010863982E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6762499919934348E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6773337479207668E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6736921672179983E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6772730994967127E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6618194153426438E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6737880391439015E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.6808897076111757E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.6878469932448562E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.6920309090080676E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
